--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -1377,6 +1377,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -1377,7 +1377,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03773510595681107</v>
+        <v>0.03807176086286729</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008733624454148492</v>
+        <v>0.002754820936639035</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0218054956499154</v>
+        <v>0.02192005025565056</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00506625097427893</v>
+        <v>-0.00310197751066299</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01994642647225608</v>
+        <v>0.01999154959735275</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002075550020755657</v>
+        <v>-0.009942004971002616</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04088884511646255</v>
+        <v>0.04083979894470761</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001385521302390114</v>
+        <v>0.0006937218175513404</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03738070182911969</v>
+        <v>0.03740232116379098</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0003920031360249432</v>
+        <v>-0.002742946708463978</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02097499375462139</v>
+        <v>0.02092169320788671</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002726918582002469</v>
+        <v>0.001171875000000044</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03846804594114669</v>
+        <v>0.03829786770352544</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00460930640913082</v>
+        <v>0.0006615214994487584</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02140871119462735</v>
+        <v>0.0214872327274124</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003480809746267299</v>
+        <v>0.008397991784573344</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0251476583997428</v>
+        <v>0.02534031122653154</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00747319397812185</v>
+        <v>-0.01257794022790792</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.024363241025203</v>
+        <v>0.02429286447673565</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003074343208496422</v>
+        <v>0.005887300252312766</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05902119746323779</v>
+        <v>0.05910492746737728</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001232134056185608</v>
+        <v>-0.0004922471080484048</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0263760342189006</v>
+        <v>0.02638094752931965</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.001115241635687658</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02723867543717923</v>
+        <v>0.02736437607724245</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004427681206953249</v>
+        <v>-0.00897959183673458</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03394609767063993</v>
+        <v>0.03395242112753215</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.001976994967649137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01871036989963924</v>
+        <v>0.0189358213439954</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01186105619881395</v>
+        <v>-0.001116382919341241</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03003937230485902</v>
+        <v>0.02988424147011943</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005349533049233801</v>
+        <v>-0.002278942570647202</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02398094650197243</v>
+        <v>0.02407433085315015</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003707136237256936</v>
+        <v>-0.00369344413665762</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1338102736233012</v>
+        <v>0.1339246617455285</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006684491978610207</v>
+        <v>-0.001336005344021562</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009550771795881091</v>
+        <v>0.00962523199787732</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007608553063098489</v>
+        <v>0.00637937768519703</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01591680905113061</v>
+        <v>0.01593464804018491</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0009343107661350381</v>
+        <v>-0.01708910748905024</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01791162601332834</v>
+        <v>0.01762598169188393</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01613070003102046</v>
+        <v>-0.003047819232790516</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0170290475201135</v>
+        <v>0.01681248741769915</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01290097629009757</v>
+        <v>0.006711409395973256</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02157779671758371</v>
+        <v>0.02153496034004289</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002171081198436897</v>
+        <v>0.0004351610095734149</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01265722801934504</v>
+        <v>0.01243691142414347</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01758938869665505</v>
+        <v>0.003815673613149384</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04274584430382795</v>
+        <v>0.04277096929823247</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0004014221814427898</v>
+        <v>-0.001375752364574212</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02555392123163987</v>
+        <v>0.02555617515488999</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.805844283194975E-05</v>
+        <v>-0.0002942041776993198</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04798934761205376</v>
+        <v>0.0479518670295636</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0009671179883946612</v>
+        <v>-0.0009680542110358514</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0572169285549387</v>
+        <v>0.05764405934242137</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007277477141257593</v>
+        <v>0.00240829937013709</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01417877983223709</v>
+        <v>0.01393722565816841</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01721938775510212</v>
+        <v>0.0311486048020766</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0150414755239445</v>
+        <v>0.01467651330175647</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02444545043005886</v>
+        <v>0.01531322505800459</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04442547800706129</v>
+        <v>0.04431852079270334</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002593360995850724</v>
+        <v>0.002080083203328087</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01696275335727913</v>
+        <v>0.01698727072970671</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001258851298190589</v>
+        <v>0.005186232909005106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0001862446530243034</v>
+        <v>5.333942096474864E-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03807176086286729</v>
+        <v>0.03817460553543221</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002754820936639035</v>
+        <v>-0.00615777080062796</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02192005025565056</v>
+        <v>0.02185088923894535</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00310197751066299</v>
+        <v>-0.01677946324387403</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01999154959735275</v>
+        <v>0.01979173783204198</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009942004971002616</v>
+        <v>-0.01255230125522999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04083979894470761</v>
+        <v>0.04086595063811575</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0006937218175513404</v>
+        <v>-0.01733102253032925</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03740232116379098</v>
+        <v>0.03729773915025628</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002742946708463978</v>
+        <v>-0.0003929273084478657</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02092169320788671</v>
+        <v>0.02094509361794907</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001171875000000044</v>
+        <v>-0.005657432696059339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03829786770352544</v>
+        <v>0.03832115853798725</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0006615214994487584</v>
+        <v>-0.01740855002203612</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0214872327274124</v>
+        <v>0.02166652665134453</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008397991784573344</v>
+        <v>-0.0135783470625509</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02534031122653154</v>
+        <v>0.02502024774104073</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01257794022790792</v>
+        <v>0.005225911812738238</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02429286447673565</v>
+        <v>0.02443458053752155</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005887300252312766</v>
+        <v>-0.01031215161649945</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05910492746737728</v>
+        <v>0.05907268233508946</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0004922471080484048</v>
+        <v>-0.00664860871706463</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02638094752931965</v>
+        <v>0.0264089600217574</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001115241635687658</v>
+        <v>-0.012253991830672</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02736437607724245</v>
+        <v>0.02711720873298991</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00897959183673458</v>
+        <v>-0.004942339373970372</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03395242112753215</v>
+        <v>0.03401773040719833</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001976994967649137</v>
+        <v>0.0100448430493274</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0189358213439954</v>
+        <v>0.01891367287212395</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001116382919341241</v>
+        <v>-0.0005588153115394512</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02988424147011943</v>
+        <v>0.02981454670938387</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.002278942570647202</v>
+        <v>0.01160347190497935</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02407433085315015</v>
+        <v>0.02398413435717767</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00369344413665762</v>
+        <v>-0.009962928637627377</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1339246617455285</v>
+        <v>0.1337386041420346</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001336005344021562</v>
+        <v>-0.01137123745819391</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00962523199787732</v>
+        <v>0.009686118336155977</v>
       </c>
       <c r="E20" s="1">
-        <v>0.00637937768519703</v>
+        <v>-0.0003880983182406039</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01593464804018491</v>
+        <v>0.01566150375148446</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01708910748905024</v>
+        <v>-0.005113594857184545</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01762598169188393</v>
+        <v>0.01757132364165797</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003047819232790516</v>
+        <v>-0.005376344086021501</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01681248741769915</v>
+        <v>0.01692442016495221</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006711409395973256</v>
+        <v>-0.007017543859649034</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02153496034004289</v>
+        <v>0.02154318241424987</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0004351610095734149</v>
+        <v>-0.008808177468464407</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01243691142414347</v>
+        <v>0.01248370074552439</v>
       </c>
       <c r="E25" s="1">
-        <v>0.003815673613149384</v>
+        <v>-0.04444444444444451</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04277096929823247</v>
+        <v>0.04270984891747454</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001375752364574212</v>
+        <v>-0.007060444291372647</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02555617515488999</v>
+        <v>0.02554729374353791</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0002942041776993198</v>
+        <v>9.809691975681822E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0479518670295636</v>
+        <v>0.04790289191024157</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0009680542110358514</v>
+        <v>-0.01017441860465107</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05764405934242137</v>
+        <v>0.05777980155306957</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00240829937013709</v>
+        <v>-0.0205137682498614</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01393722565816841</v>
+        <v>0.01437058427358798</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0311486048020766</v>
+        <v>-0.02202643171806185</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01467651330175647</v>
+        <v>0.01490046327093008</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01531322505800459</v>
+        <v>-0.02605118829981723</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04431852079270334</v>
+        <v>0.04440833828835028</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002080083203328087</v>
+        <v>-0.006746237675142708</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01698727072970671</v>
+        <v>0.01707445993039332</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005186232909005106</v>
+        <v>-0.01235146966854284</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>5.333942096474864E-05</v>
+        <v>-0.00893567924919525</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03817460553543221</v>
+        <v>0.03828160722746898</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00615777080062796</v>
+        <v>0.004616338441975953</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02185088923894535</v>
+        <v>0.02167795025638558</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01677946324387403</v>
+        <v>0.01073635407024121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01979173783204198</v>
+        <v>0.01971951322150731</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01255230125522999</v>
+        <v>0.01167372881355933</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04086595063811575</v>
+        <v>0.04051977362726649</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01733102253032925</v>
+        <v>0.004585537918871285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03729773915025628</v>
+        <v>0.03761923728800576</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0003929273084478657</v>
+        <v>0.001179245283018604</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02094509361794907</v>
+        <v>0.02101437588300542</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005657432696059339</v>
+        <v>0.00294290759270166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03832115853798725</v>
+        <v>0.03799354082704803</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01740855002203612</v>
+        <v>-0.001121327651940063</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02166652665134453</v>
+        <v>0.02156502921691443</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0135783470625509</v>
+        <v>0.002936588051757338</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02502024774104073</v>
+        <v>0.0253777689526897</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005225911812738238</v>
+        <v>0.004223979205025374</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02443458053752155</v>
+        <v>0.02440064376448638</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01031215161649945</v>
+        <v>-0.0121092649957758</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05907268233508946</v>
+        <v>0.05920900385145698</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00664860871706463</v>
+        <v>-0.008428358948934123</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0264089600217574</v>
+        <v>0.02632053671514746</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.012253991830672</v>
+        <v>0.008646616541353236</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02711720873298991</v>
+        <v>0.02722647331720601</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004942339373970372</v>
+        <v>-0.01158940397350983</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03401773040719833</v>
+        <v>0.03466922625567143</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0100448430493274</v>
+        <v>-0.001243118451429659</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01891367287212395</v>
+        <v>0.01907353864560986</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0005588153115394512</v>
+        <v>-0.0067095331283199</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02981454670938387</v>
+        <v>0.03043243342837434</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01160347190497935</v>
+        <v>-0.03341763005780352</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02398413435717767</v>
+        <v>0.02395927453038881</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.009962928637627377</v>
+        <v>0.005148607535689242</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1337386041420346</v>
+        <v>0.1334099391418342</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01137123745819391</v>
+        <v>0.007442489851150258</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009686118336155977</v>
+        <v>0.009769657697478534</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003880983182406039</v>
+        <v>0.00310599197618755</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01566150375148446</v>
+        <v>0.01572190304928041</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.005113594857184545</v>
+        <v>0.003083926866877418</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01757132364165797</v>
+        <v>0.01763442976786164</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005376344086021501</v>
+        <v>-0.03131955484896654</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01692442016495221</v>
+        <v>0.01695717619156545</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007017543859649034</v>
+        <v>-0.0003533568904594553</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02154318241424987</v>
+        <v>0.0215459539741405</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008808177468464407</v>
+        <v>-0.01217772901810199</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01248370074552439</v>
+        <v>0.01203642321846664</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.04444444444444451</v>
+        <v>0.01040391676866603</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04270984891747454</v>
+        <v>0.04279066203934406</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007060444291372647</v>
+        <v>0.004162330905306932</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02554729374353791</v>
+        <v>0.02578016312302153</v>
       </c>
       <c r="E27" s="1">
-        <v>9.809691975681822E-05</v>
+        <v>-0.0001961745953896754</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04790289191024157</v>
+        <v>0.04784301769601861</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01017441860465107</v>
+        <v>0.004405286343612369</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05777980155306957</v>
+        <v>0.05710479018315619</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0205137682498614</v>
+        <v>0.001320754716981121</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01437058427358798</v>
+        <v>0.01418076636003822</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02202643171806185</v>
+        <v>-0.02831402831402829</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01490046327093008</v>
+        <v>0.01464313485275147</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02605118829981723</v>
+        <v>-0.0178320037541061</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04440833828835028</v>
+        <v>0.04450644439513601</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.006746237675142708</v>
+        <v>0.003134796238244419</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01707445993039332</v>
+        <v>0.01701561130127347</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01235146966854284</v>
+        <v>0.0006332119677061598</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.00893567924919525</v>
+        <v>-0.0005643858595498763</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03828160722746898</v>
+        <v>0.03848004567618823</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004616338441975953</v>
+        <v>0.006289308176100628</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02167795025638558</v>
+        <v>0.02192306547400673</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01073635407024121</v>
+        <v>-0.001565557729941269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01971951322150731</v>
+        <v>0.0199609791655744</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01167372881355933</v>
+        <v>0.01359133840129001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04051977362726649</v>
+        <v>0.0407285652119838</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004585537918871285</v>
+        <v>0.004915730337078594</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03761923728800576</v>
+        <v>0.03768486840297403</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001179245283018604</v>
+        <v>0.001570475068708443</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02101437588300542</v>
+        <v>0.02108812108669321</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00294290759270166</v>
+        <v>0.002934272300469498</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03799354082704803</v>
+        <v>0.03797236868706414</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001121327651940063</v>
+        <v>-0.001347103726986987</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02156502921691443</v>
+        <v>0.02164057045600658</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002936588051757338</v>
+        <v>0.002195992314026896</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0253777689526897</v>
+        <v>0.02549935559674223</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004223979205025374</v>
+        <v>0.004314063848144922</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02440064376448638</v>
+        <v>0.02411878220269946</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0121092649957758</v>
+        <v>0.004561003420752607</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05920900385145698</v>
+        <v>0.05874312290189971</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008428358948934123</v>
+        <v>0.005000000000000115</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02632053671514746</v>
+        <v>0.02656311214816802</v>
       </c>
       <c r="E13" s="1">
-        <v>0.008646616541353236</v>
+        <v>0.001118151323145744</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02722647331720601</v>
+        <v>0.02692613144699999</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01158940397350983</v>
+        <v>-0.0001675041876048056</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03466922625567143</v>
+        <v>0.03464568183373765</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001243118451429659</v>
+        <v>0.006223328591749677</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01907353864560986</v>
+        <v>0.01895626275284047</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0067095331283199</v>
+        <v>0.01322825781030113</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03043243342837434</v>
+        <v>0.02943206466742185</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.03341763005780352</v>
+        <v>0.01093253597458421</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02395927453038881</v>
+        <v>0.02409623100383263</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005148607535689242</v>
+        <v>0.002793946449359597</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1334099391418342</v>
+        <v>0.1344787391587312</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007442489851150258</v>
+        <v>-0.001343183344526655</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009769657697478534</v>
+        <v>0.009805536281919819</v>
       </c>
       <c r="E20" s="1">
-        <v>0.00310599197618755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01572190304928041</v>
+        <v>0.01577929385882013</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003083926866877418</v>
+        <v>-0.00322084766854569</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01763442976786164</v>
+        <v>0.01709177363286987</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.03131955484896654</v>
+        <v>0.0128015755785329</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01695717619156545</v>
+        <v>0.01696075666774597</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0003533568904594553</v>
+        <v>0.008837044892187951</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0215459539741405</v>
+        <v>0.02129559211626809</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01217772901810199</v>
+        <v>0.008884940026654853</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01203642321846664</v>
+        <v>0.01216851690269558</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01040391676866603</v>
+        <v>-0.003634161114476231</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04279066203934406</v>
+        <v>0.04299303559575834</v>
       </c>
       <c r="E26" s="1">
-        <v>0.004162330905306932</v>
+        <v>0.008981001727115911</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02578016312302153</v>
+        <v>0.02578966102995968</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001961745953896754</v>
+        <v>-9.810654370667748E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04784301769601861</v>
+        <v>0.04808091607766053</v>
       </c>
       <c r="E28" s="1">
-        <v>0.004405286343612369</v>
+        <v>-0.0004873294346978696</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05710479018315619</v>
+        <v>0.05721250153100638</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001320754716981121</v>
+        <v>0.01319012624835136</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01418076636003822</v>
+        <v>0.01378703294624549</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02831402831402829</v>
+        <v>-0.004635761589403931</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01464313485275147</v>
+        <v>0.01439014000862314</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0178320037541061</v>
+        <v>0.02245580506450073</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04450644439513601</v>
+        <v>0.04467117480899519</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003134796238244419</v>
+        <v>-0.001041666666666607</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01701561130127347</v>
+        <v>0.0170360006678675</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0006332119677061598</v>
+        <v>-0.0007910140800506671</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0005643858595498763</v>
+        <v>0.00378724833769617</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03848004567618823</v>
+        <v>0.03857596179489347</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006289308176100628</v>
+        <v>0.0003906250000000888</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02192306547400673</v>
+        <v>0.02180615831256907</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001565557729941269</v>
+        <v>0.00196001568012516</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0199609791655744</v>
+        <v>0.02015594003783184</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01359133840129001</v>
+        <v>-0.001652892561983421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0407285652119838</v>
+        <v>0.04077435325400019</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004915730337078594</v>
+        <v>-0.002795248078266921</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03768486840297403</v>
+        <v>0.03760164478257103</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001570475068708443</v>
+        <v>0.0007840062720501084</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02108812108669321</v>
+        <v>0.02107020129145087</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002934272300469498</v>
+        <v>0.0007801833430856053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03797236868706414</v>
+        <v>0.03777814076686272</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001347103726986987</v>
+        <v>-0.004946043165467651</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02164057045600658</v>
+        <v>0.02160626469235917</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002195992314026896</v>
+        <v>-0.003560668310052084</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02549935559674223</v>
+        <v>0.02551273836889546</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004314063848144922</v>
+        <v>0.009664948453608213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02411878220269946</v>
+        <v>0.02413737382194684</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004561003420752607</v>
+        <v>-0.01049943246311014</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05874312290189971</v>
+        <v>0.05881409493314058</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005000000000000115</v>
+        <v>-0.01145522388059717</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02656311214816802</v>
+        <v>0.02649248012584531</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001118151323145744</v>
+        <v>0.002233804914370863</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02692613144699999</v>
+        <v>0.02682004702870024</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0001675041876048056</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03464568183373765</v>
+        <v>0.0347297630586617</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006223328591749677</v>
+        <v>0.005654709312599371</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01895626275284047</v>
+        <v>0.01913455377667159</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01322825781030113</v>
+        <v>-0.01777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02943206466742185</v>
+        <v>0.02964157177975515</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01093253597458421</v>
+        <v>0.006654958868657079</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02409623100383263</v>
+        <v>0.02407238647721851</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002793946449359597</v>
+        <v>0.002321801718133232</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1344787391587312</v>
+        <v>0.1337914082675409</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001343183344526655</v>
+        <v>0.0006724949562879612</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009805536281919819</v>
+        <v>0.00976854039355262</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>-0.0159979357502259</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01577929385882013</v>
+        <v>0.01566912827696357</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.00322084766854569</v>
+        <v>0.01358595872806068</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01709177363286987</v>
+        <v>0.01724526317052652</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0128015755785329</v>
+        <v>-0.002052611678280192</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01696075666774597</v>
+        <v>0.01704608189052021</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008837044892187951</v>
+        <v>0.002102312543798224</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02129559211626809</v>
+        <v>0.02140374089293598</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008884940026654853</v>
+        <v>0.0001100836635841151</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01216851690269558</v>
+        <v>0.01207855008302325</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003634161114476231</v>
+        <v>-0.03860182370820653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04299303559575834</v>
+        <v>0.04321548833633329</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008981001727115911</v>
+        <v>0.002282323405226494</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02578966102995968</v>
+        <v>0.02568983710259019</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.810654370667748E-05</v>
+        <v>0.0001962323390896081</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04808091607766053</v>
+        <v>0.04787616590227996</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0004873294346978696</v>
+        <v>-0.0012189176011701</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05721250153100638</v>
+        <v>0.05774843398855663</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01319012624835136</v>
+        <v>-0.0104147294030128</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01378703294624549</v>
+        <v>0.01367134277827036</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004635761589403931</v>
+        <v>-0.04258150365934787</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01439014000862314</v>
+        <v>0.01465776957405398</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02245580506450073</v>
+        <v>-0.002803738317757043</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04467117480899519</v>
+        <v>0.04445627538020199</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001041666666666607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0170360006678675</v>
+        <v>0.01695829965927672</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0007910140800506671</v>
+        <v>-0.01456618112729557</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E34" s="1">
-        <v>0.00378724833769617</v>
+        <v>-0.002140272717803149</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03857596179489347</v>
+        <v>0.03867380301545728</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003906250000000888</v>
+        <v>0.003123779773525959</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02180615831256907</v>
+        <v>0.02189576162602871</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00196001568012516</v>
+        <v>0.002018779342723098</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02015594003783184</v>
+        <v>0.02016578471331853</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001652892561983421</v>
+        <v>-0.0004139072847683112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04077435325400019</v>
+        <v>0.04074758977613847</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002795248078266921</v>
+        <v>0.01016117729502453</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03760164478257103</v>
+        <v>0.03771183832662866</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007840062720501084</v>
+        <v>0.0003916960438699046</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02107020129145087</v>
+        <v>0.02113186787181619</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0007801833430856053</v>
+        <v>0.001948937828883057</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03777814076686272</v>
+        <v>0.03767191662730347</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004946043165467651</v>
+        <v>-0.0004518752824218542</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02160626469235917</v>
+        <v>0.02157550942456459</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003560668310052084</v>
+        <v>0.002199010445299576</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02551273836889546</v>
+        <v>0.02581456788550845</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009664948453608213</v>
+        <v>0.003935332907891942</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02413737382194684</v>
+        <v>0.0239351728932057</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01049943246311014</v>
+        <v>-0.001720676799541132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05881409493314058</v>
+        <v>0.05826506944688483</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01145522388059717</v>
+        <v>-0.00627838800186209</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02649248012584531</v>
+        <v>0.02660860883769832</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002233804914370863</v>
+        <v>0.003343239227340256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02682004702870024</v>
+        <v>0.02730084121966964</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01574803149606296</v>
+        <v>0.0009896091044037103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0347297630586617</v>
+        <v>0.03500106159047012</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005654709312599371</v>
+        <v>0.001757160428747184</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01913455377667159</v>
+        <v>0.01883469531628657</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01777777777777778</v>
+        <v>0.00707013574660631</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02964157177975515</v>
+        <v>0.02990283544363673</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006654958868657079</v>
+        <v>0.006427325314479759</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02407238647721851</v>
+        <v>0.02418002964326203</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002321801718133232</v>
+        <v>0.003242992819087354</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1337914082675409</v>
+        <v>0.1341685395796453</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006724949562879612</v>
+        <v>0.004032258064516014</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00976854039355262</v>
+        <v>0.00963288090415609</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0159979357502259</v>
+        <v>-0.0003933394519469724</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01566912827696357</v>
+        <v>0.0159160731441641</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01358595872806068</v>
+        <v>0.001231705549920248</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01724526317052652</v>
+        <v>0.01724677815069361</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.002052611678280192</v>
+        <v>0.0005412719891744189</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01704608189052021</v>
+        <v>0.01711855646166434</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002102312543798224</v>
+        <v>-0.01398601398601407</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02140374089293598</v>
+        <v>0.02145201024742248</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0001100836635841151</v>
+        <v>-0.004623004953219434</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01207855008302325</v>
+        <v>0.0116372028097529</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03860182370820653</v>
+        <v>0.006006955422067639</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04321548833633329</v>
+        <v>0.04340702292375637</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002282323405226494</v>
+        <v>-0.005408174883297145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02568983710259019</v>
+        <v>0.02574999028109799</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001962323390896081</v>
+        <v>9.809691975681822E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04787616590227996</v>
+        <v>0.04792037146465793</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0012189176011701</v>
+        <v>0.004637539663168155</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05774843398855663</v>
+        <v>0.05726957217801092</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0104147294030128</v>
+        <v>-0.00864499154294307</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01367134277827036</v>
+        <v>0.01311727098294607</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.04258150365934787</v>
+        <v>0.01806810284920068</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01465776957405398</v>
+        <v>0.01464802378953282</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002803738317757043</v>
+        <v>-0.003280224929709474</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04445627538020199</v>
+        <v>0.04455162801417445</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.001042752867570274</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01695829965927672</v>
+        <v>0.01674712541044635</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01456618112729557</v>
+        <v>-0.001767352185089943</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002140272717803149</v>
+        <v>0.0009311206457833787</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03867380301545728</v>
+        <v>0.03875852259849078</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003123779773525959</v>
+        <v>-0.001557026080186819</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02189576162602871</v>
+        <v>0.02191955458746976</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002018779342723098</v>
+        <v>0.001889768698558392</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02016578471331853</v>
+        <v>0.02013868640143529</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0004139072847683112</v>
+        <v>-0.0004140786749481373</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04074758977613847</v>
+        <v>0.0411233424670041</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01016117729502453</v>
+        <v>-0.003468609087755703</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03771183832662866</v>
+        <v>0.03769151455713327</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0003916960438699046</v>
+        <v>-0.0005873140172280022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02113186787181619</v>
+        <v>0.0211533562417822</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001948937828883057</v>
+        <v>0.000583544057576546</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03767191662730347</v>
+        <v>0.03761986498635776</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0004518752824218542</v>
+        <v>0.004294755877034095</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02157550942456459</v>
+        <v>0.0216028393454298</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002199010445299576</v>
+        <v>-0.00146279027244467</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02581456788550845</v>
+        <v>0.02589204818338614</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003935332907891942</v>
+        <v>0.01207755058798599</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0239351728932057</v>
+        <v>0.02387176070726961</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001720676799541132</v>
+        <v>0.008905486929043471</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05826506944688483</v>
+        <v>0.05784539768988924</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00627838800186209</v>
+        <v>0.008356545961002881</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02660860883769832</v>
+        <v>0.02667273225087122</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003343239227340256</v>
+        <v>0.0003702332469455172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02730084121966964</v>
+        <v>0.02730243651837606</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0009896091044037103</v>
+        <v>0.01136925358378638</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03500106159047012</v>
+        <v>0.03502994696402215</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001757160428747184</v>
+        <v>0.006490089457990011</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01883469531628657</v>
+        <v>0.01895021423320413</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00707013574660631</v>
+        <v>0.001684919966301601</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02990283544363673</v>
+        <v>0.03006703465813068</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006427325314479759</v>
+        <v>0.004379162485174781</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02418002964326203</v>
+        <v>0.02423587877866093</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003242992819087354</v>
+        <v>-0.000692680674209023</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1341685395796453</v>
+        <v>0.1345842276024523</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004032258064516014</v>
+        <v>-0.001338688085676054</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00963288090415609</v>
+        <v>0.009620134406299665</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003933394519469724</v>
+        <v>-0.002229800629590772</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0159160731441641</v>
+        <v>0.01592085282502484</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001231705549920248</v>
+        <v>0.01157826181344523</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01724677815069361</v>
+        <v>0.01724006077209064</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0005412719891744189</v>
+        <v>0.01347038139031653</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01711855646166434</v>
+        <v>0.01686343419982886</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01398601398601407</v>
+        <v>-0.007801418439716157</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02145201024742248</v>
+        <v>0.02133297392533429</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004623004953219434</v>
+        <v>0.003317483136127342</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0116372028097529</v>
+        <v>0.01169621637971994</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006006955422067639</v>
+        <v>0.007228158390949035</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04340702292375637</v>
+        <v>0.04313210895547678</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005408174883297145</v>
+        <v>0.01036002518459167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02574999028109799</v>
+        <v>0.02572855988253544</v>
       </c>
       <c r="E27" s="1">
-        <v>9.809691975681822E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04792037146465793</v>
+        <v>0.04809781921551032</v>
       </c>
       <c r="E28" s="1">
-        <v>0.004637539663168155</v>
+        <v>-0.0009718172983479434</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05726957217801092</v>
+        <v>0.05672166249984729</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.00864499154294307</v>
+        <v>0.004805687203791376</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01311727098294607</v>
+        <v>0.01334185231002792</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01806810284920068</v>
+        <v>0.01979522184300331</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01464802378953282</v>
+        <v>0.01458639328479244</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.003280224929709474</v>
+        <v>-0.0009402914903620108</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04455162801417445</v>
+        <v>0.04455659678486892</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001042752867570274</v>
+        <v>0.0005208333333333037</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01674712541044635</v>
+        <v>0.01670197578727731</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001767352185089943</v>
+        <v>0.005150490906164373</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0009311206457833787</v>
+        <v>0.002924418377586946</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03875852259849078</v>
+        <v>0.0385853349054725</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001557026080186819</v>
+        <v>0.002339181286549641</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02191955458746976</v>
+        <v>0.02189694165702076</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001889768698558392</v>
+        <v>-0.001558846453624252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02013868640143529</v>
+        <v>0.02007164950018815</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0004140786749481373</v>
+        <v>0.002485501242750487</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0411233424670041</v>
+        <v>0.04086120640466397</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003468609087755703</v>
+        <v>0.003132613992342437</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03769151455713327</v>
+        <v>0.037559537999125</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0005873140172280022</v>
+        <v>-0.0009794319294808007</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0211533562417822</v>
+        <v>0.0211039832805689</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000583544057576546</v>
+        <v>0.003110419906687367</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03761986498635776</v>
+        <v>0.03767126657831256</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004294755877034095</v>
+        <v>0.007427413909520508</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0216028393454298</v>
+        <v>0.02150833953875959</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00146279027244467</v>
+        <v>0.0003662332906060328</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02589204818338614</v>
+        <v>0.02612835047683706</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01207755058798599</v>
+        <v>0.003140374751386954</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02387176070726961</v>
+        <v>0.0240141230175473</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008905486929043471</v>
+        <v>0.01993166287015935</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05784539768988924</v>
+        <v>0.05815870502851524</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008356545961002881</v>
+        <v>0.01481667503766948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02667273225087122</v>
+        <v>0.02660480380595514</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003702332469455172</v>
+        <v>0.003700962250185125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02730243651837606</v>
+        <v>0.02753232879430487</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01136925358378638</v>
+        <v>0.00456174649723029</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03502994696402215</v>
+        <v>0.03515448802269905</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006490089457990011</v>
+        <v>0.01394214011850803</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01895021423320413</v>
+        <v>0.01892679396343588</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001684919966301601</v>
+        <v>0.01626016260162588</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03006703465813068</v>
+        <v>0.03011064695901803</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004379162485174781</v>
+        <v>0.02688709237896258</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02423587877866093</v>
+        <v>0.02414847082194616</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.000692680674209023</v>
+        <v>0.0004621072088721867</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1345842276024523</v>
+        <v>0.1340121536953542</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001338688085676054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009620134406299665</v>
+        <v>0.009570694709050327</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002229800629590772</v>
+        <v>0.01735243854344692</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01592085282502484</v>
+        <v>0.01605822765127145</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01157826181344523</v>
+        <v>-0.004077544888761664</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01724006077209064</v>
+        <v>0.01742134366829711</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01347038139031653</v>
+        <v>0.009501441229849306</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01686343419982886</v>
+        <v>0.01668308716660048</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007801418439716157</v>
+        <v>0.008577555396711789</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02133297392533429</v>
+        <v>0.02134133471513186</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003317483136127342</v>
+        <v>0.02215364267607178</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01169621637971994</v>
+        <v>0.01174640707556497</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007228158390949035</v>
+        <v>0.03588143525741039</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04313210895547678</v>
+        <v>0.04345188719307182</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01036002518459167</v>
+        <v>0.01280308180376166</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02572855988253544</v>
+        <v>0.02565353820396164</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>9.808729769500424E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04809781921551032</v>
+        <v>0.04791096521561938</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0009718172983479434</v>
+        <v>0.006322957198443779</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05672166249984729</v>
+        <v>0.05682806004434428</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004805687203791376</v>
+        <v>0.02332864810814383</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01334185231002792</v>
+        <v>0.01356628374679681</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01979522184300331</v>
+        <v>0.002677376171352108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01458639328479244</v>
+        <v>0.01453018548185878</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0009402914903620108</v>
+        <v>0.004705882352941115</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04455659678486892</v>
+        <v>0.04444981349423153</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0005208333333333037</v>
+        <v>0.004685059864653951</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01670197578727731</v>
+        <v>0.01673904718447509</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005150490906164373</v>
+        <v>0.01329063250600493</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002924418377586946</v>
+        <v>0.007842055294722705</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0385853349054725</v>
+        <v>0.03837465681813482</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002339181286549641</v>
+        <v>-0.004667444574095736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02189694165702076</v>
+        <v>0.0216926923939289</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001558846453624252</v>
+        <v>-0.006245120999219367</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02007164950018815</v>
+        <v>0.01996497120184253</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002485501242750487</v>
+        <v>-0.005165289256198302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04086120640466397</v>
+        <v>0.04067027028317921</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003132613992342437</v>
+        <v>-0.006245662734212232</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.037559537999125</v>
+        <v>0.03723078511283134</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009794319294808007</v>
+        <v>-0.0007843137254902599</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0211039832805689</v>
+        <v>0.02100490391233432</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003110419906687367</v>
+        <v>0.0003875968992248513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03767126657831256</v>
+        <v>0.03765576805245299</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007427413909520508</v>
+        <v>0.004468275245755216</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02150833953875959</v>
+        <v>0.02134879815313161</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003662332906060328</v>
+        <v>-0.005216913783635313</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02612835047683706</v>
+        <v>0.02600645919791987</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003140374751386954</v>
+        <v>0.01826150474799126</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0240141230175473</v>
+        <v>0.02430218534043332</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01993166287015935</v>
+        <v>-0.00335008375209378</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05815870502851524</v>
+        <v>0.0585611836214506</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01481667503766948</v>
+        <v>-0.003464488987874215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02660480380595514</v>
+        <v>0.02649548809779102</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003700962250185125</v>
+        <v>-0.006865781710914565</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02753232879430487</v>
+        <v>0.02744271699463354</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00456174649723029</v>
+        <v>0.01070385987674349</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03515448802269905</v>
+        <v>0.03536726477452104</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01394214011850803</v>
+        <v>0.01117222413200425</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01892679396343588</v>
+        <v>0.01908488201078697</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01626016260162588</v>
+        <v>0.01020689655172413</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03011064695901803</v>
+        <v>0.03067964324663302</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02688709237896258</v>
+        <v>-0.01556833259619639</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02414847082194616</v>
+        <v>0.02397164305406092</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0004621072088721867</v>
+        <v>-0.004387990762124483</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1340121536953542</v>
+        <v>0.1329694003056512</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>-0.002680965147452974</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009570694709050327</v>
+        <v>0.009661007446211298</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01735243854344692</v>
+        <v>0.01175862514536763</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01605822765127145</v>
+        <v>0.01586830934784984</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004077544888761664</v>
+        <v>0.01019968395345483</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01742134366829711</v>
+        <v>0.01745002746106236</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009501441229849306</v>
+        <v>-0.009359137055837574</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01668308716660048</v>
+        <v>0.01669526210239331</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008577555396711789</v>
+        <v>-0.0007087172218286364</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02134133471513186</v>
+        <v>0.02164438654255428</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02215364267607178</v>
+        <v>-0.003773991805046339</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01174640707556497</v>
+        <v>0.01207320626940477</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03588143525741039</v>
+        <v>-0.01174698795180729</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04345188719307182</v>
+        <v>0.04366577583078059</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01280308180376166</v>
+        <v>0.007998657567960699</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02565353820396164</v>
+        <v>0.02545642380709921</v>
       </c>
       <c r="E27" s="1">
-        <v>9.808729769500424E-05</v>
+        <v>-0.0001961553550412498</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04791096521561938</v>
+        <v>0.04783875007469767</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006322957198443779</v>
+        <v>-0.001691638472692159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05682806004434428</v>
+        <v>0.05770128519074488</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02332864810814383</v>
+        <v>-0.004609144542772836</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01356628374679681</v>
+        <v>0.01349676342654355</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002677376171352108</v>
+        <v>-0.02202937249666226</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01453018548185878</v>
+        <v>0.01448497088269825</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004705882352941115</v>
+        <v>-0.01030444964871191</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04444981349423153</v>
+        <v>0.04431057753227551</v>
       </c>
       <c r="E32" s="1">
-        <v>0.004685059864653951</v>
+        <v>-0.0005181347150259308</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01673904718447509</v>
+        <v>0.01682954151396726</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01329063250600493</v>
+        <v>-0.003792667509481706</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007842055294722705</v>
+        <v>-0.001342012537919435</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03837465681813482</v>
+        <v>0.03824687301751194</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004667444574095736</v>
+        <v>0.005080109417741285</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0216926923939289</v>
+        <v>0.02158618783985694</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006245120999219367</v>
+        <v>0.002356637863314859</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01996497120184253</v>
+        <v>0.01988853701663053</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005165289256198302</v>
+        <v>0.004984423676012373</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04067027028317921</v>
+        <v>0.04047056950337148</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006245662734212232</v>
+        <v>-0.006634078212290562</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03723078511283134</v>
+        <v>0.03725157657988404</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0007843137254902599</v>
+        <v>0.003532182103610726</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02100490391233432</v>
+        <v>0.02104128301357739</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003875968992248513</v>
+        <v>-0.002130956993413369</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03765576805245299</v>
+        <v>0.03787485291618704</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004468275245755216</v>
+        <v>-0.005560498220640531</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02134879815313161</v>
+        <v>0.02126596250209122</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005216913783635313</v>
+        <v>0.0004600239212437796</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02600645919791987</v>
+        <v>0.02651696237201191</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01826150474799126</v>
+        <v>-0.01373232219717158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02430218534043332</v>
+        <v>0.02425331924269382</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00335008375209378</v>
+        <v>-0.002240896358543409</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0585611836214506</v>
+        <v>0.058436721859087</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003464488987874215</v>
+        <v>0.0002483238142538813</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02649548809779102</v>
+        <v>0.02634893646328202</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006865781710914565</v>
+        <v>0.005056843074501272</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02744271699463354</v>
+        <v>0.02777373268947532</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01070385987674349</v>
+        <v>-0.01251604621309377</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03536726477452104</v>
+        <v>0.03581045386158876</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01117222413200425</v>
+        <v>-0.004079551249362545</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01908488201078697</v>
+        <v>0.0193055877680095</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01020689655172413</v>
+        <v>-0.01392681594756962</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03067964324663302</v>
+        <v>0.03024259830273832</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01556833259619639</v>
+        <v>-0.001886961991194203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02397164305406092</v>
+        <v>0.02389852782977213</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.004387990762124483</v>
+        <v>0.003479471120389599</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1329694003056512</v>
+        <v>0.1327911213274999</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002680965147452974</v>
+        <v>0.001344086021505264</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009661007446211298</v>
+        <v>0.009787742884967459</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01175862514536763</v>
+        <v>-0.01711366538952741</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01586830934784984</v>
+        <v>0.01605170267431745</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01019968395345483</v>
+        <v>-0.008603526734925815</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01745002746106236</v>
+        <v>0.01730994041949976</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009359137055837574</v>
+        <v>0.0001067520683213363</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01669526210239331</v>
+        <v>0.01670584934189182</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0007087172218286364</v>
+        <v>0.002127659574468144</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02164438654255428</v>
+        <v>0.02159167710650907</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.003773991805046339</v>
+        <v>-0.0007576577551683394</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01207320626940477</v>
+        <v>0.01194741604294376</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01174698795180729</v>
+        <v>-0.009143553794574766</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04366577583078059</v>
+        <v>0.04407419153673129</v>
       </c>
       <c r="E26" s="1">
-        <v>0.007998657567960699</v>
+        <v>-0.007824205094056902</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02545642380709921</v>
+        <v>0.02548563243150914</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001961553550412498</v>
+        <v>-9.809691975648516E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04783875007469767</v>
+        <v>0.04782200193076531</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.001691638472692159</v>
+        <v>0.003631082062454549</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05770128519074488</v>
+        <v>0.0575125141420629</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004609144542772836</v>
+        <v>-0.007408779403593191</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01349676342654355</v>
+        <v>0.01321717581317806</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02202937249666226</v>
+        <v>0.01979522184300331</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01448497088269825</v>
+        <v>0.01435497578706219</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01030444964871191</v>
+        <v>0.004732607666824373</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04431057753227551</v>
+        <v>0.04434713309244402</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0005181347150259308</v>
+        <v>-0.002073613271124986</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01682954151396726</v>
+        <v>0.01678824269084851</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003792667509481706</v>
+        <v>0.0009517766497462166</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001342012537919435</v>
+        <v>-0.001607018139374139</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03824687301751194</v>
+        <v>0.03850304641133154</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005080109417741285</v>
+        <v>0.007387247278382691</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02158618783985694</v>
+        <v>0.0216718857810095</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002356637863314859</v>
+        <v>0.002742946708463867</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01988853701663053</v>
+        <v>0.02001984216091747</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004984423676012373</v>
+        <v>-0.007646207894192902</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04047056950337148</v>
+        <v>0.04026679404844045</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006634078212290562</v>
+        <v>-0.004569420035149374</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03725157657988404</v>
+        <v>0.03744332803936859</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003532182103610726</v>
+        <v>-0.00430191630817367</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02104128301357739</v>
+        <v>0.02103024092302793</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002130956993413369</v>
+        <v>0.000776548243059505</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03787485291618704</v>
+        <v>0.03772487442144042</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005560498220640531</v>
+        <v>0.008051889957503944</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02126596250209122</v>
+        <v>0.02130999089546937</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0004600239212437796</v>
+        <v>0.001287474710318204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02651696237201191</v>
+        <v>0.0261949186103955</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01373232219717158</v>
+        <v>0.003013300083125614</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02425331924269382</v>
+        <v>0.02423792084638112</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002240896358543409</v>
+        <v>-0.002245929253228529</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.058436721859087</v>
+        <v>0.05854531647430114</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0002483238142538813</v>
+        <v>-0.002234359483614723</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02634893646328202</v>
+        <v>0.02652480474252143</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005056843074501272</v>
+        <v>-0.001847063169560403</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02777373268947532</v>
+        <v>0.02747026057466055</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01251604621309377</v>
+        <v>0.01007474813129683</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03581045386158876</v>
+        <v>0.03572176881024607</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004079551249362545</v>
+        <v>-0.007509813961426803</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0193055877680095</v>
+        <v>0.01906736400022319</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01392681594756962</v>
+        <v>0.003323179174743673</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03024259830273832</v>
+        <v>0.0302341184459968</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001886961991194203</v>
+        <v>-0.01053294922578318</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02389852782977213</v>
+        <v>0.02402028309782675</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003479471120389599</v>
+        <v>0.003929727230698177</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1327911213274999</v>
+        <v>0.1331836325308009</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001344086021505264</v>
+        <v>0.006711409395973256</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009787742884967459</v>
+        <v>0.00963572351078322</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01711366538952741</v>
+        <v>0.001689189189189255</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01605170267431745</v>
+        <v>0.0159392160305063</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008603526734925815</v>
+        <v>0.007745822276411074</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01730994041949976</v>
+        <v>0.01733965342903297</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0001067520683213363</v>
+        <v>-0.01526391631531188</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01670584934189182</v>
+        <v>0.0167683407299139</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002127659574468144</v>
+        <v>-0.02406227883934897</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02159167710650907</v>
+        <v>0.02161004574039975</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0007576577551683394</v>
+        <v>-0.004116117850953116</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01194741604294376</v>
+        <v>0.01185722898370847</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.009143553794574766</v>
+        <v>0.01753306674869259</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04407419153673129</v>
+        <v>0.04379973298820494</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007824205094056902</v>
+        <v>-0.003187919463087385</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02548563243150914</v>
+        <v>0.02552415014173945</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.809691975648516E-05</v>
+        <v>-0.0001962130874131329</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04782200193076531</v>
+        <v>0.0480729015690005</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003631082062454549</v>
+        <v>0.003859141341051586</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0575125141420629</v>
+        <v>0.05717830318223079</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.007408779403593191</v>
+        <v>0.007464079119238631</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01321717581317806</v>
+        <v>0.01350050830227042</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01979522184300331</v>
+        <v>-0.02476572958500667</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01435497578706219</v>
+        <v>0.01444612744437595</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004732607666824373</v>
+        <v>0.002355157795572271</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04434713309244402</v>
+        <v>0.04432640762984163</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002073613271124986</v>
+        <v>0.005194805194805197</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01678824269084851</v>
+        <v>0.01683126950363297</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0009517766497462166</v>
+        <v>-0.001584786053882792</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001607018139374139</v>
+        <v>0.000741046190863015</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03850304641133154</v>
+        <v>0.03857849153404789</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007387247278382691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0216718857810095</v>
+        <v>0.02187608625849361</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002742946708463867</v>
+        <v>-0.001543209876543328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02001984216091747</v>
+        <v>0.01999941029266526</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007646207894192902</v>
+        <v>0.00493421052631593</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04026679404844045</v>
+        <v>0.04003301279042748</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004569420035149374</v>
+        <v>-0.003865073787772344</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03744332803936859</v>
+        <v>0.03724196584620703</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00430191630817367</v>
+        <v>0.001953888237592682</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02103024092302793</v>
+        <v>0.02095354593995968</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000776548243059505</v>
+        <v>-0.0009682416731214838</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03772487442144042</v>
+        <v>0.0380293603920634</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008051889957503944</v>
+        <v>0.01124586549062845</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02130999089546937</v>
+        <v>0.02130542268355249</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001287474710318204</v>
+        <v>-0.001188408446841538</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0261949186103955</v>
+        <v>0.02604450559126411</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003013300083125614</v>
+        <v>0.006751142501038698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02423792084638112</v>
+        <v>0.02426456326896957</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002245929253228529</v>
+        <v>0.007525083612040184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05854531647430114</v>
+        <v>0.05847386446848298</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002234359483614723</v>
+        <v>0.01210474308300391</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02652480474252143</v>
+        <v>0.0265757832084353</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001847063169560403</v>
+        <v>0.004030780505679843</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02747026057466055</v>
+        <v>0.02765164743400214</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01007474813129683</v>
+        <v>0.005294400770094798</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03572176881024607</v>
+        <v>0.03532617443056047</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.007509813961426803</v>
+        <v>0.009777015437392844</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01906736400022319</v>
+        <v>0.01904971097577899</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003323179174743673</v>
+        <v>-0.000550964187327696</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0302341184459968</v>
+        <v>0.0300967147079772</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01053294922578318</v>
+        <v>-0.004224339385223819</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02402028309782675</v>
+        <v>0.02394417365095656</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003929727230698177</v>
+        <v>0.002535146347084627</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1331836325308009</v>
+        <v>0.133341051826889</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006711409395973256</v>
+        <v>0.004663557628247883</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00963572351078322</v>
+        <v>0.009592590678999304</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001689189189189255</v>
+        <v>-0.001167466597483569</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0159392160305063</v>
+        <v>0.01594790449662663</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007745822276411074</v>
+        <v>0.01047232314597135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01733965342903297</v>
+        <v>0.01718969829977637</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01526391631531188</v>
+        <v>-0.004868913857677959</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0167683407299139</v>
+        <v>0.01662974683972323</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02406227883934897</v>
+        <v>-0.00354609929077998</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02161004574039975</v>
+        <v>0.02177015534460143</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004116117850953116</v>
+        <v>0.003953836289805501</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01185722898370847</v>
+        <v>0.01220834847050746</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01753306674869259</v>
+        <v>-0.004156769596199594</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04379973298820494</v>
+        <v>0.04326720586114988</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003187919463087385</v>
+        <v>0.01204141345937448</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02552415014173945</v>
+        <v>0.02535709078436215</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001962130874131329</v>
+        <v>-0.0001962901167924525</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0480729015690005</v>
+        <v>0.04791528989390407</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003859141341051586</v>
+        <v>0.006253006253006399</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05717830318223079</v>
+        <v>0.0580458126856868</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007464079119238631</v>
+        <v>0.01972963098282787</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01350050830227042</v>
+        <v>0.01334556389952361</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02476572958500667</v>
+        <v>0.002691790040376896</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01444612744437595</v>
+        <v>0.01464800558544819</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002355157795572271</v>
+        <v>0.008771929824561431</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04432640762984163</v>
+        <v>0.04432819214937232</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005194805194805197</v>
+        <v>-0.0005162622612288059</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01683126950363297</v>
+        <v>0.01696890970958537</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001584786053882792</v>
+        <v>0.01718481487267609</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.000741046190863015</v>
+        <v>0.005017543793208512</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03857849153404789</v>
+        <v>0.03838588865667181</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001542614731970593</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02187608625849361</v>
+        <v>0.02173327918603344</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001543209876543328</v>
+        <v>0.002318392581143858</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01999941029266526</v>
+        <v>0.01999775199704056</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00493421052631593</v>
+        <v>0.009410801963993354</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04003301279042748</v>
+        <v>0.03967919016770016</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003865073787772344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03724196584620703</v>
+        <v>0.03712843891697935</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001953888237592682</v>
+        <v>0.001950078003120304</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02095354593995968</v>
+        <v>0.02082874868489674</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009682416731214838</v>
+        <v>0.004264392324093702</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0380293603920634</v>
+        <v>0.03826503696500651</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01124586549062845</v>
+        <v>-0.004361098996947366</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02130542268355249</v>
+        <v>0.0211738623576211</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001188408446841538</v>
+        <v>0.003386417719201784</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02604450559126411</v>
+        <v>0.02608943089781018</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006751142501038698</v>
+        <v>0.006602702981532982</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02426456326896957</v>
+        <v>0.0243251038624739</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007525083612040184</v>
+        <v>-0.001106500691562928</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05847386446848298</v>
+        <v>0.05888621143027681</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01210474308300391</v>
+        <v>-0.002196729314132173</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0265757832084353</v>
+        <v>0.02654969012441964</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004030780505679843</v>
+        <v>0.001094890510948909</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02765164743400214</v>
+        <v>0.02765926476522365</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005294400770094798</v>
+        <v>0.007181615065432467</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03532617443056047</v>
+        <v>0.03549346894849015</v>
       </c>
       <c r="E15" s="1">
-        <v>0.009777015437392844</v>
+        <v>0.004076779344317938</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01904971097577899</v>
+        <v>0.01894416210426858</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.000550964187327696</v>
+        <v>-0.006339581036383768</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0300967147079772</v>
+        <v>0.02981995305032899</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.004224339385223819</v>
+        <v>0.004603303547251469</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02394417365095656</v>
+        <v>0.02388503144404906</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002535146347084627</v>
+        <v>0.004597701149425371</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.133341051826889</v>
+        <v>0.1332940865894565</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004663557628247883</v>
+        <v>0.001326259946949682</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009592590678999304</v>
+        <v>0.009533556611992535</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001167466597483569</v>
+        <v>-0.01571428571428568</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01594790449662663</v>
+        <v>0.01603446248828088</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01047232314597135</v>
+        <v>0.004230118443316444</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01718969829977637</v>
+        <v>0.01702060152597197</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.004868913857677959</v>
+        <v>0.002742082907683185</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01662974683972323</v>
+        <v>0.0164880466103173</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.00354609929077998</v>
+        <v>-0.001067615658362997</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02177015534460143</v>
+        <v>0.02174711387857597</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003953836289805501</v>
+        <v>0.002660989888238374</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01220834847050746</v>
+        <v>0.01209690443102054</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.004156769596199594</v>
+        <v>0.005963029218843285</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04326720586114988</v>
+        <v>0.04356959184104121</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01204141345937448</v>
+        <v>0.003391526743022233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02535709078436215</v>
+        <v>0.02522554317048519</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001962901167924525</v>
+        <v>0.0001963286541668552</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04791528989390407</v>
+        <v>0.04797419189246105</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006253006253006399</v>
+        <v>0.002868068833651982</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0580458126856868</v>
+        <v>0.05889552427778598</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01972963098282787</v>
+        <v>-0.006986743102830428</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01334556389952361</v>
+        <v>0.01331468036369415</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002691790040376896</v>
+        <v>0.002013422818792021</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01464800558544819</v>
+        <v>0.01470272529446901</v>
       </c>
       <c r="E31" s="1">
-        <v>0.008771929824561431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04432819214937232</v>
+        <v>0.04408411320805095</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0005162622612288059</v>
+        <v>0.002582644628099207</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01696890970958537</v>
+        <v>0.01717434425710608</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01718481487267609</v>
+        <v>-0.009061588081707872</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005017543793208512</v>
+        <v>0.0009969591668781419</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03838588865667181</v>
+        <v>0.03837597633651088</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001542614731970593</v>
+        <v>0.001539645881447171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02173327918603344</v>
+        <v>0.02172355813531401</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002318392581143858</v>
+        <v>-0.004050144648023224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01999775199704056</v>
+        <v>0.02009290813933977</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009410801963993354</v>
+        <v>0.001320601381552322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03967919016770016</v>
+        <v>0.03963449565285836</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.0007047216349542751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03712843891697935</v>
+        <v>0.03711965929468199</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001950078003120304</v>
+        <v>-0.001167769560140197</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02082874868489674</v>
+        <v>0.02082357985339332</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004264392324093702</v>
+        <v>0.002128071193654435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03826503696500651</v>
+        <v>0.03816488026680344</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004361098996947366</v>
+        <v>0.002399650959860278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0211738623576211</v>
+        <v>0.02112572117453948</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003386417719201784</v>
+        <v>0.005766590389016057</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02608943089781018</v>
+        <v>0.02627152358623763</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006602702981532982</v>
+        <v>-0.002044571662236816</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0243251038624739</v>
+        <v>0.02427201946540815</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001106500691562928</v>
+        <v>0.0008298755186721962</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05888621143027681</v>
+        <v>0.05871467979772884</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002196729314132173</v>
+        <v>0.0009770395701025336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02654969012441964</v>
+        <v>0.02647241399354192</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001094890510948909</v>
+        <v>0.000365230094959923</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02765926476522365</v>
+        <v>0.02766056795332024</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007181615065432467</v>
+        <v>0.0009554140127387978</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03549346894849015</v>
+        <v>0.03549421955793462</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004076779344317938</v>
+        <v>-0.0237288135593221</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01894416210426858</v>
+        <v>0.0187100408837117</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.006339581036383768</v>
+        <v>0.001392369813422611</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02981995305032899</v>
+        <v>0.03034036004433924</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004603303547251469</v>
+        <v>-0.0119500752412145</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02388503144404906</v>
+        <v>0.02393700516852129</v>
       </c>
       <c r="E18" s="1">
-        <v>0.004597701149425371</v>
+        <v>0.000457770656900891</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1332940865894565</v>
+        <v>0.1334441924665204</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001326259946949682</v>
+        <v>-0.0006609385327166484</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009533556611992535</v>
+        <v>0.009404034478397341</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01571428571428568</v>
+        <v>-0.008276405675249787</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01603446248828088</v>
+        <v>0.01603669447421048</v>
       </c>
       <c r="E21" s="1">
-        <v>0.004230118443316444</v>
+        <v>-0.0007737216009001679</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01702060152597197</v>
+        <v>0.01714690940163626</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002742082907683185</v>
+        <v>-0.01134306102886362</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0164880466103173</v>
+        <v>0.01668625802916524</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001067615658362997</v>
+        <v>-0.01824561403508762</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02174711387857597</v>
+        <v>0.02175739796328238</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002660989888238374</v>
+        <v>-0.002441613588110347</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01209690443102054</v>
+        <v>0.01216047646546533</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005963029218843285</v>
+        <v>0.006510802012429817</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04356959184104121</v>
+        <v>0.04350593311447781</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003391526743022233</v>
+        <v>0.0005555864214679129</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02522554317048519</v>
+        <v>0.02517790628872015</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001963286541668552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04797419189246105</v>
+        <v>0.04800679137630894</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002868068833651982</v>
+        <v>-0.0004766444232602307</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05889552427778598</v>
+        <v>0.05849611318314227</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.006986743102830428</v>
+        <v>0.00568906838580574</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01331468036369415</v>
+        <v>0.01346395441039935</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002013422818792021</v>
+        <v>0.01125827814569536</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01470272529446901</v>
+        <v>0.01463706844663618</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.002293577981651307</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04408411320805095</v>
+        <v>0.04412423511407131</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002582644628099207</v>
+        <v>0.001544799176107059</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01717434425710608</v>
+        <v>0.01701842548338174</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.009061588081707872</v>
+        <v>0.006959480358800008</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0009969591668781419</v>
+        <v>-0.0008693312148640997</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03837597633651088</v>
+        <v>0.03846850362141112</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001539645881447171</v>
+        <v>-0.001537279016141424</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02172355813531401</v>
+        <v>0.02165439942795811</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004050144648023224</v>
+        <v>0.001549186676994552</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02009290813933977</v>
+        <v>0.02013694853952551</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001320601381552322</v>
+        <v>-0.0009130567109667531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03963449565285836</v>
+        <v>0.03964102554717867</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0007047216349542751</v>
+        <v>-0.002115655853314413</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03711965929468199</v>
+        <v>0.03710857172621551</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001167769560140197</v>
+        <v>0.0011691348402183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02082357985339332</v>
+        <v>0.02088605080975224</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002128071193654435</v>
+        <v>-1.930501930424988E-06</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03816488026680344</v>
+        <v>0.03828974913249882</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002399650959860278</v>
+        <v>-0.0008705114254625723</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02112572117453948</v>
+        <v>0.02126603178046866</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005766590389016057</v>
+        <v>-0.002730251183108767</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02627152358623763</v>
+        <v>0.02624062136483931</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002044571662236816</v>
+        <v>-0.0008195041999590202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02427201946540815</v>
+        <v>0.02431329852949923</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0008298755186721962</v>
+        <v>0.004698728579325628</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05871467979772884</v>
+        <v>0.05882318319254408</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0009770395701025336</v>
+        <v>0.006588579795022032</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02647241399354192</v>
+        <v>0.02650512424768096</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000365230094959923</v>
+        <v>0.0003650967506390046</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02766056795332024</v>
+        <v>0.02771108535904353</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0009554140127387978</v>
+        <v>-0.002068087814190211</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03549421955793462</v>
+        <v>0.03468213410138318</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0237288135593221</v>
+        <v>-0.001909722222222188</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0187100408837117</v>
+        <v>0.01875239422149627</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001392369813422611</v>
+        <v>0.0177975528364851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03034036004433924</v>
+        <v>0.03000387376299286</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0119500752412145</v>
+        <v>0.006360867228095257</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02393700516852129</v>
+        <v>0.02396879965282255</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000457770656900891</v>
+        <v>-0.0002287805994050096</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1334441924665204</v>
+        <v>0.1334720254557918</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0006609385327166484</v>
+        <v>-0.000661375661375585</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009404034478397341</v>
+        <v>0.009334317487631539</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.008276405675249787</v>
+        <v>0.01086236587627498</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01603669447421048</v>
+        <v>0.01603822907045083</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0007737216009001679</v>
+        <v>-0.0001407855835564575</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01714690940163626</v>
+        <v>0.01696716104456077</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01134306102886362</v>
+        <v>0.001562079181254949</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01668625802916524</v>
+        <v>0.01639606061276669</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01824561403508762</v>
+        <v>-0.002501786990707688</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02175739796328238</v>
+        <v>0.02172315942534723</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002441613588110347</v>
+        <v>-0.0001064169415772032</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01216047646546533</v>
+        <v>0.0122503004887151</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006510802012429817</v>
+        <v>-0.0117612466921494</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04350593311447781</v>
+        <v>0.04356797942465191</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0005555864214679129</v>
+        <v>-0.001055028041534789</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02517790628872015</v>
+        <v>0.02519981327300713</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.0001962708537779356</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>79</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04800679137630894</v>
+        <v>0.04802565941176189</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0004766444232602307</v>
+        <v>0.0009537434430137992</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05849611318314227</v>
+        <v>0.05888008786966405</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00568906838580574</v>
+        <v>0.004014044682419726</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01346395441039935</v>
+        <v>0.01362738206269657</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01125827814569536</v>
+        <v>-0.01178781925343797</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01463706844663618</v>
+        <v>0.01468340444636701</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002293577981651307</v>
+        <v>-0.01006864988558354</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04412423511407131</v>
+        <v>0.04423084945421239</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001544799176107059</v>
+        <v>-0.0005141388174806361</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01701842548338174</v>
+        <v>0.01715177545506447</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006959480358800008</v>
+        <v>0.001228689909384073</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0008693312148640997</v>
+        <v>0.0004905953236704619</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>Symbol</t>
   </si>
@@ -118,6 +118,9 @@
     <t>APLE</t>
   </si>
   <si>
+    <t>VRP</t>
+  </si>
+  <si>
     <t>MPW</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>Apple Hospitality REIT Inc</t>
   </si>
   <si>
+    <t>Invesco Variable Rate Preferred ETF</t>
+  </si>
+  <si>
     <t>Medical Properties Trust Inc</t>
   </si>
   <si>
@@ -278,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -697,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03846850362141112</v>
+        <v>0.03636770933153336</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001537279016141424</v>
+        <v>0.001545595054095905</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,16 +752,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02165439942795811</v>
+        <v>0.02044419390384109</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001549186676994552</v>
+        <v>0.001700043670846751</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,13 +769,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02013694853952551</v>
+        <v>0.01915476264040399</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0009130567109667531</v>
+        <v>0.002789807470844785</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,16 +783,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03964102554717867</v>
+        <v>0.03757264200827575</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002115655853314413</v>
+        <v>0.004950495049504955</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -794,16 +800,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03710857172621551</v>
+        <v>0.03525807773376148</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0011691348402183</v>
+        <v>-0.003118908382066188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -811,16 +817,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02088605080975224</v>
+        <v>0.01984076484572308</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.930501930424988E-06</v>
+        <v>0.002317944755649837</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -828,16 +834,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03828974913249882</v>
+        <v>0.03658462787321154</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0008705114254625723</v>
+        <v>0.003680450313920725</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -845,16 +851,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02126603178046866</v>
+        <v>0.02039371550284901</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002730251183108767</v>
+        <v>0.00189428107522982</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -862,16 +868,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02624062136483931</v>
+        <v>0.02591014053190107</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0008195041999590202</v>
+        <v>-0.003155507346415565</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -879,16 +885,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02431329852949923</v>
+        <v>0.02324400981056799</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004698728579325628</v>
+        <v>0.01181643308601266</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,16 +902,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05882318319254408</v>
+        <v>0.0563618756995457</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006588579795022032</v>
+        <v>0.01149842653110622</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,16 +919,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02650512424768096</v>
+        <v>0.02535095570231702</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003650967506390046</v>
+        <v>0.0003084012118355073</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,16 +936,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02771108535904353</v>
+        <v>0.02769290945582763</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002068087814190211</v>
+        <v>-0.005447117566954041</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,16 +953,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03468213410138318</v>
+        <v>0.03341761716471014</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001909722222222188</v>
+        <v>-0.004281555060798081</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,16 +970,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01875239422149627</v>
+        <v>0.0193459146319159</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0177975528364851</v>
+        <v>0.01281065846784535</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,16 +987,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03000387376299286</v>
+        <v>0.03052956012382269</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006360867228095257</v>
+        <v>0.00970792534940168</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -998,16 +1004,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02396879965282255</v>
+        <v>0.04232134402904208</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0002287805994050096</v>
+        <v>0.002752924982794225</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1015,16 +1021,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1334720254557918</v>
+        <v>0.1262782731167326</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.000661375661375585</v>
+        <v>0.001328903654485014</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1032,16 +1038,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009334317487631539</v>
+        <v>0.009234291303935261</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01086236587627498</v>
+        <v>0.008400152730049903</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1049,16 +1055,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01603822907045083</v>
+        <v>0.0158903945980164</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0001407855835564575</v>
+        <v>-0.008238789843327932</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,16 +1072,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01696716104456077</v>
+        <v>0.01673803765322431</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001562079181254949</v>
+        <v>0.00487855511729296</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,16 +1089,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01639606061276669</v>
+        <v>0.0161971976425949</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002501786990707688</v>
+        <v>0.00859697386519942</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1100,16 +1106,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02172315942534723</v>
+        <v>0.02143676409477715</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0001064169415772032</v>
+        <v>0.004612546125461359</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1117,16 +1123,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0122503004887151</v>
+        <v>0.01154466539696128</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0117612466921494</v>
+        <v>0.02135231316725994</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1134,16 +1140,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04356797942465191</v>
+        <v>0.04193349674250795</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001055028041534789</v>
+        <v>0.005209475762228521</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1151,16 +1157,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02519981327300713</v>
+        <v>0.02396896230780905</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001962708537779356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1168,16 +1174,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04802565941176189</v>
+        <v>0.04584446906427026</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0009537434430137992</v>
+        <v>0.003323836657169954</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1185,16 +1191,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05888008786966405</v>
+        <v>0.05557631887004779</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004014044682419726</v>
+        <v>0.01189403496125419</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1202,16 +1208,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01362738206269657</v>
+        <v>0.01260508791213337</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01178781925343797</v>
+        <v>0.02489905787348601</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1219,16 +1225,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01468340444636701</v>
+        <v>0.02060112948651726</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01006864988558354</v>
+        <v>0.001537870049980627</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1236,16 +1242,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04423084945421239</v>
+        <v>0.01416741240995873</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0005141388174806361</v>
+        <v>0.01848512173128936</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,127 +1259,144 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01715177545506447</v>
+        <v>0.04178219031096281</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001228689909384073</v>
+        <v>0.002586652871184647</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
       <c r="D34" s="1">
+        <v>0.01641048810030155</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.009154714678059062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.0004905953236704619</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>87</v>
+      <c r="E35" s="1">
+        <v>0.004233637758262576</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03636770933153336</v>
+        <v>0.03627036350277373</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001545595054095905</v>
+        <v>0.001157407407407218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02044419390384109</v>
+        <v>0.02039261498151741</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001700043670846751</v>
+        <v>-0.0003892565200468434</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01915476264040399</v>
+        <v>0.0191272230067882</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002789807470844785</v>
+        <v>0.002830570157703161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03757264200827575</v>
+        <v>0.03759946268163519</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004950495049504955</v>
+        <v>-0.0007037297677692234</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03525807773376148</v>
+        <v>0.03499993397755802</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003118908382066188</v>
+        <v>0.0007821666014862227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01984076484572308</v>
+        <v>0.01980291626850724</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002317944755649837</v>
+        <v>-0.0009635767970705977</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03658462787321154</v>
+        <v>0.03656447503622775</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003680450313920725</v>
+        <v>-0.004314063848145033</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02039371550284901</v>
+        <v>0.02034620845582362</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00189428107522982</v>
+        <v>0.001530566309534631</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02591014053190107</v>
+        <v>0.02571949387272303</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003155507346415565</v>
+        <v>-0.00999109704223955</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02324400981056799</v>
+        <v>0.02341952132737318</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01181643308601266</v>
+        <v>-0.01064638783269967</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0563618756995457</v>
+        <v>0.0567696066362553</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01149842653110622</v>
+        <v>-0.008495871724302995</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02535095570231702</v>
+        <v>0.0252518667114008</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003084012118355073</v>
+        <v>-0.01414581066376508</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02769290945582763</v>
+        <v>0.02742595137893659</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005447117566954041</v>
+        <v>-0.009584664536741339</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03341761716471014</v>
+        <v>0.03313425934536218</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004281555060798081</v>
+        <v>-0.0147918816649466</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0193459146319159</v>
+        <v>0.01951114541507724</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01281065846784535</v>
+        <v>-0.02251454591449542</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03052956012382269</v>
+        <v>0.03069598314120124</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00970792534940168</v>
+        <v>-0.007293825113966035</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04232134402904208</v>
+        <v>0.04225894245990256</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002752924982794225</v>
+        <v>-0.0002287805994051206</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1262782731167326</v>
+        <v>0.1259130146821444</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001328903654485014</v>
+        <v>0.0006635700066357497</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009234291303935261</v>
+        <v>0.009272603915189328</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008400152730049903</v>
+        <v>-0.01602928183768793</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0158903945980164</v>
+        <v>0.01569303833675145</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008238789843327932</v>
+        <v>-0.006673021925643563</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01673803765322431</v>
+        <v>0.01674878679628505</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00487855511729296</v>
+        <v>-0.006301001962607078</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0161971976425949</v>
+        <v>0.01626757351395377</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00859697386519942</v>
+        <v>-0.001363791339924925</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02143676409477715</v>
+        <v>0.02144485242101496</v>
       </c>
       <c r="E24" s="1">
-        <v>0.004612546125461359</v>
+        <v>-0.004081216202428517</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01154466539696128</v>
+        <v>0.01174146161270767</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02135231316725994</v>
+        <v>-0.008420441347270713</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04193349674250795</v>
+        <v>0.041974244530893</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005209475762228521</v>
+        <v>-0.007419126070591031</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02396896230780905</v>
+        <v>0.02386791420501971</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>-4.903402961642378E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04584446906427026</v>
+        <v>0.04580293555367526</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003323836657169954</v>
+        <v>-0.0004732607666823041</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05557631887004779</v>
+        <v>0.05600026073140094</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01189403496125419</v>
+        <v>-0.009795191451469232</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01260508791213337</v>
+        <v>0.01286447918075792</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02489905787348601</v>
+        <v>-0.01378857518056487</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02060112948651726</v>
+        <v>0.02054582775439458</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001537870049980627</v>
+        <v>-0.001151631477927073</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01416741240995873</v>
+        <v>0.014368467864893</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01848512173128936</v>
+        <v>-0.003541389995573296</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04178219031096281</v>
+        <v>0.04171366578300059</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002586652871184647</v>
+        <v>-0.001547987616098978</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01641048810030155</v>
+        <v>0.01649090491885511</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009154714678059062</v>
+        <v>-0.003477472029029482</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.004233637758262576</v>
+        <v>-0.004568778427336273</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03627036350277373</v>
+        <v>0.03647900759310319</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001157407407407218</v>
+        <v>0.001156069364161905</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02039261498151741</v>
+        <v>0.02047823755313769</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0003892565200468434</v>
+        <v>0.001168224299065601</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0191272230067882</v>
+        <v>0.01926940157967585</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002830570157703161</v>
+        <v>0.005241935483871085</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03759946268163519</v>
+        <v>0.03774545343387269</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0007037297677692234</v>
+        <v>0.001760563380281743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03499993397755802</v>
+        <v>0.03518807628078058</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007821666014862227</v>
+        <v>0.00156311059007419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01980291626850724</v>
+        <v>0.0198746374527217</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009635767970705977</v>
+        <v>0.001736111111110938</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03656447503622775</v>
+        <v>0.03657383128774002</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004314063848145033</v>
+        <v>0.005415944540727802</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02034620845582362</v>
+        <v>0.02047087657630335</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001530566309534631</v>
+        <v>0.001708018698310054</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02571949387272303</v>
+        <v>0.02557939449933626</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00999109704223955</v>
+        <v>-0.00229816147082329</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02341952132737318</v>
+        <v>0.02327653334387044</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01064638783269967</v>
+        <v>0.009937410782914213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0567696066362553</v>
+        <v>0.05654564385825396</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008495871724302995</v>
+        <v>0.008206613565049592</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0252518667114008</v>
+        <v>0.0250089187946748</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01414581066376508</v>
+        <v>0.005150846210449034</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02742595137893659</v>
+        <v>0.02728775453963965</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.009584664536741339</v>
+        <v>0.003533026113671234</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03313425934536218</v>
+        <v>0.03279396968330573</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0147918816649466</v>
+        <v>0.0003491620111730764</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01951114541507724</v>
+        <v>0.0191593958703182</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02251454591449542</v>
+        <v>0.0005175983436851439</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03069598314120124</v>
+        <v>0.03061195123087034</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.007293825113966035</v>
+        <v>-0.008850296401436086</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04225894245990256</v>
+        <v>0.04244318795523361</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0002287805994051206</v>
+        <v>0.002059496567505814</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1259130146821444</v>
+        <v>0.1265748592686021</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006635700066357497</v>
+        <v>0.0006631299734747298</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009272603915189328</v>
+        <v>0.009165847459806127</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01602928183768793</v>
+        <v>-0.001026167265264277</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01569303833675145</v>
+        <v>0.01565986480032507</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006673021925643563</v>
+        <v>-0.002125034274746418</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01674878679628505</v>
+        <v>0.0167196409928915</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006301001962607078</v>
+        <v>0.007692307692307665</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01626757351395377</v>
+        <v>0.0163199501743657</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001363791339924925</v>
+        <v>-0.01502219187435982</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02144485242101496</v>
+        <v>0.02145535611000182</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004081216202428517</v>
+        <v>0.006044462657514682</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01174146161270767</v>
+        <v>0.01169602989292692</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008420441347270713</v>
+        <v>0.01639824304538817</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.041974244530893</v>
+        <v>0.04185405421901288</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007419126070591031</v>
+        <v>-0.0008244023083262553</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02386791420501971</v>
+        <v>0.02397628620418502</v>
       </c>
       <c r="E27" s="1">
-        <v>-4.903402961642378E-05</v>
+        <v>-0.0001471093022116232</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04580293555367526</v>
+        <v>0.04599138326096489</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0004732607666823041</v>
+        <v>0.003314393939393812</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05600026073140094</v>
+        <v>0.05570623690966563</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.009795191451469232</v>
+        <v>0.009174460431654818</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01286447918075792</v>
+        <v>0.01274532691708335</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01378857518056487</v>
+        <v>0.01664447403462055</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02054582775439458</v>
+        <v>0.02061635810457096</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001151631477927073</v>
+        <v>0.002305918524212025</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.014368467864893</v>
+        <v>0.01438329761640835</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003541389995573296</v>
+        <v>0.005775211017325699</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04171366578300059</v>
+        <v>0.04184025238744849</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001547987616098978</v>
+        <v>0.002067183462532096</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01649090491885511</v>
+        <v>0.01650898414890315</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003477472029029482</v>
+        <v>0.009861932938856066</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.004568778427336273</v>
+        <v>0.002719469952416009</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03647900759310319</v>
+        <v>0.0364221309654531</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001156069364161905</v>
+        <v>-0.00115473441108549</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02047823755313769</v>
+        <v>0.02044655693064605</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001168224299065601</v>
+        <v>0.000777907429015956</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01926940157967585</v>
+        <v>0.01931787615581907</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005241935483871085</v>
+        <v>-0.003208985158443589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03774545343387269</v>
+        <v>0.03770935723304032</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001760563380281743</v>
+        <v>0.0059753954305799</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03518807628078058</v>
+        <v>0.03514749657462208</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00156311059007419</v>
+        <v>0.002731174404994263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0198746374527217</v>
+        <v>0.01985514655716964</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001736111111110938</v>
+        <v>-0.001347968419025625</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03657383128774002</v>
+        <v>0.03667218422654282</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005415944540727802</v>
+        <v>0.003016591251885581</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02047087657630335</v>
+        <v>0.02045022743723085</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001708018698310054</v>
+        <v>-0.004576864399174485</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02557939449933626</v>
+        <v>0.02545139461754141</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00229816147082329</v>
+        <v>-0.006509764646970506</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02327653334387044</v>
+        <v>0.02344408632897718</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009937410782914213</v>
+        <v>0.001902690948627273</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05654564385825396</v>
+        <v>0.0568550764341805</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008206613565049592</v>
+        <v>-0.001436437634666055</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0250089187946748</v>
+        <v>0.02506955997420564</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005150846210449034</v>
+        <v>0.005124450951683679</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02728775453963965</v>
+        <v>0.02730989445164675</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003533026113671234</v>
+        <v>-0.01025562528700441</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03279396968330573</v>
+        <v>0.03271644869254556</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0003491620111730764</v>
+        <v>-0.006282722513088923</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0191593958703182</v>
+        <v>0.01911732375436608</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0005175983436851439</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03061195123087034</v>
+        <v>0.03025873865847111</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.008850296401436086</v>
+        <v>0.005896723106730617</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04244318795523361</v>
+        <v>0.04241525255030672</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002059496567505814</v>
+        <v>0.001370175839232601</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1265748592686021</v>
+        <v>0.1263152842316725</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006631299734747298</v>
+        <v>0.00265076209410231</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009165847459806127</v>
+        <v>0.009131608631892814</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001026167265264277</v>
+        <v>-0.004494093477144134</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01565986480032507</v>
+        <v>0.01558420627020242</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002125034274746418</v>
+        <v>-0.004671292161846585</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0167196409928915</v>
+        <v>0.01680255956006646</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007692307692307665</v>
+        <v>0.004590468330926356</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0163199501743657</v>
+        <v>0.01603119240541845</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01502219187435982</v>
+        <v>0.006585788561525252</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02145535611000182</v>
+        <v>0.02152650153470814</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006044462657514682</v>
+        <v>0.00162932790224013</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01169602989292692</v>
+        <v>0.01185558333113987</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01639824304538817</v>
+        <v>0.006914433880725879</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04185405421901288</v>
+        <v>0.041706131069826</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0008244023083262553</v>
+        <v>-0.01094609460946105</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02397628620418502</v>
+        <v>0.02390774268159919</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001471093022116232</v>
+        <v>0.0002942618930847907</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04599138326096489</v>
+        <v>0.04601867043142099</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003314393939393812</v>
+        <v>0.0009438414346389923</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05570623690966563</v>
+        <v>0.05606484491485694</v>
       </c>
       <c r="E29" s="1">
-        <v>0.009174460431654818</v>
+        <v>0.003384417422175101</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01274532691708335</v>
+        <v>0.01292232430734828</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01664447403462055</v>
+        <v>0.01047806155861175</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02061635810457096</v>
+        <v>0.0206078553033449</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002305918524212025</v>
+        <v>-0.0007668711656441118</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01438329761640835</v>
+        <v>0.01442713004860134</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005775211017325699</v>
+        <v>0.002650176678445249</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04184025238744849</v>
+        <v>0.04181303457410838</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002067183462532096</v>
+        <v>-0.000515729757606942</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01650898414890315</v>
+        <v>0.01662657916102839</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009861932938856066</v>
+        <v>0.003004807692307709</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002719469952416009</v>
+        <v>0.0004006480287530589</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0364221309654531</v>
+        <v>0.03636550331028635</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00115473441108549</v>
+        <v>-0.003468208092485603</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02044655693064605</v>
+        <v>0.02045426749722784</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000777907429015956</v>
+        <v>0.0006956859696851669</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01931787615581907</v>
+        <v>0.01924817363511839</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003208985158443589</v>
+        <v>-0.00201207243460777</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03770935723304032</v>
+        <v>0.03791949318374535</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0059753954305799</v>
+        <v>-0.001048218029350179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03514749657462208</v>
+        <v>0.03522937593764269</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002731174404994263</v>
+        <v>-0.0007782101167315147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01985514655716964</v>
+        <v>0.01982044142586915</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001347968419025625</v>
+        <v>-0.0003856536829925927</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03667218422654282</v>
+        <v>0.03676807815863284</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003016591251885581</v>
+        <v>-0.007518796992481258</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02045022743723085</v>
+        <v>0.02034847694214337</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004576864399174485</v>
+        <v>-0.005409304002885085</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02545139461754141</v>
+        <v>0.02527558541517188</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006509764646970506</v>
+        <v>-0.005947580645161321</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02344408632897718</v>
+        <v>0.02347928625008153</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001902690948627273</v>
+        <v>0.003526858383070985</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0568550764341805</v>
+        <v>0.05675067061835497</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001436437634666055</v>
+        <v>0.002157755933828609</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02506955997420564</v>
+        <v>0.02518793620768378</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005124450951683679</v>
+        <v>-0.006554989075018169</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02730989445164675</v>
+        <v>0.02701898930271998</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01025562528700441</v>
+        <v>-0.005103618929786613</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03271644869254556</v>
+        <v>0.03249788011219099</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006282722513088923</v>
+        <v>-0.01088865472427114</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01911732375436608</v>
+        <v>0.01911955351901376</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0005173305742369738</v>
+        <v>-0.005946225439503627</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03025873865847111</v>
+        <v>0.03042497635509752</v>
       </c>
       <c r="E17" s="1">
-        <v>0.005896723106730617</v>
+        <v>0.001674901599530987</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04241525255030672</v>
+        <v>0.04245635884808558</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001370175839232601</v>
+        <v>-0.002052451539338751</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1263152842316725</v>
+        <v>0.1265993942012915</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00265076209410231</v>
+        <v>-0.001982815598149501</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009131608631892814</v>
+        <v>0.00908692966864523</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004494093477144134</v>
+        <v>-0.002192699600154779</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01558420627020242</v>
+        <v>0.01550519576348575</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004671292161846585</v>
+        <v>-0.008282145075574565</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01680255956006646</v>
+        <v>0.01687293107103255</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004590468330926356</v>
+        <v>0.002772500898495567</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01603119240541845</v>
+        <v>0.01613030787293719</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006585788561525252</v>
+        <v>-0.009641873278236957</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02152650153470814</v>
+        <v>0.02155294012132281</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00162932790224013</v>
+        <v>0.000305002033347046</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01185558333113987</v>
+        <v>0.01193277713456396</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006914433880725879</v>
+        <v>0.002861230329041398</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.041706131069826</v>
+        <v>0.04123309185636945</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01094609460946105</v>
+        <v>-0.0002780712974806976</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02390774268159919</v>
+        <v>0.02390520024786381</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0002942618930847907</v>
+        <v>-0.0004902922141595267</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04601867043142099</v>
+        <v>0.04604365745874373</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0009438414346389923</v>
+        <v>-0.004714757190004804</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05606484491485694</v>
+        <v>0.05623206248776988</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003384417422175101</v>
+        <v>-0.002131438721136636</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01292232430734828</v>
+        <v>0.01305249576022438</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01047806155861175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0206078553033449</v>
+        <v>0.0205838048724806</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0007668711656441118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01442713004860134</v>
+        <v>0.0144595712934577</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002650176678445249</v>
+        <v>-0.01057268722466964</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04181303457410838</v>
+        <v>0.04177473338334094</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.000515729757606942</v>
+        <v>-0.0005159958720329927</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01662657916102839</v>
+        <v>0.01666986008740461</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003004807692307709</v>
+        <v>0.0002995805871779389</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0004006480287530589</v>
+        <v>-0.002360707064118395</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03636550331028635</v>
+        <v>0.03632513317591172</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003468208092485603</v>
+        <v>-0.001160092807424684</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02045426749722784</v>
+        <v>0.02051693170976713</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0006956859696851669</v>
+        <v>-0.001666155298102212</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01924817363511839</v>
+        <v>0.0192549000942019</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00201207243460777</v>
+        <v>0.002016129032258229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03791949318374535</v>
+        <v>0.03796937987060707</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001048218029350179</v>
+        <v>0.0003497726477790231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03522937593764269</v>
+        <v>0.03528525823926655</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0007782101167315147</v>
+        <v>0.002336448598130758</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01982044142586915</v>
+        <v>0.01985968048765307</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0003856536829925927</v>
+        <v>0.001929012345678993</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03676807815863284</v>
+        <v>0.03657797633026841</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007518796992481258</v>
+        <v>0.005627705627705648</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02034847694214337</v>
+        <v>0.02028629584627672</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005409304002885085</v>
+        <v>0.003353879622915334</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02527558541517188</v>
+        <v>0.02518471055668041</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005947580645161321</v>
+        <v>-0.0004056383733901381</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02347928625008153</v>
+        <v>0.02361784919104574</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003526858383070985</v>
+        <v>-0.0002703433360368157</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05675067061835497</v>
+        <v>0.05700770320228929</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002157755933828609</v>
+        <v>-0.00311004784688973</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02518793620768378</v>
+        <v>0.02508204091218406</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006554989075018169</v>
+        <v>0.0003665689149559004</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02701898930271998</v>
+        <v>0.02694470322870349</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005103618929786613</v>
+        <v>0.0001554484688326419</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03249788011219099</v>
+        <v>0.0322200840965117</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01088865472427114</v>
+        <v>0.001953125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01911955351901376</v>
+        <v>0.01905083779083726</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005946225439503627</v>
+        <v>0.009362808842652726</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03042497635509752</v>
+        <v>0.03054805019454968</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001674901599530987</v>
+        <v>-0.007022824178580356</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04245635884808558</v>
+        <v>0.042469477223905</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.002052451539338751</v>
+        <v>0.0002285191956126198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1265993942012915</v>
+        <v>0.1266473482373888</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001982815598149501</v>
+        <v>0.0006622516556291647</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00908692966864523</v>
+        <v>0.00908845995320765</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002192699600154779</v>
+        <v>-0.003490175801447615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01550519576348575</v>
+        <v>0.0154131654513087</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008282145075574565</v>
+        <v>-0.001322291043218016</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01687293107103255</v>
+        <v>0.01695974828516971</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002772500898495567</v>
+        <v>-0.02027545952588194</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01613030787293719</v>
+        <v>0.016012582505122</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.009641873278236957</v>
+        <v>-0.001738525730180851</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02155294012132281</v>
+        <v>0.02161052994257921</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000305002033347046</v>
+        <v>-0.004167090151438124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01193277713456396</v>
+        <v>0.01199523679865743</v>
       </c>
       <c r="E25" s="1">
-        <v>0.002861230329041398</v>
+        <v>0.02368045649072759</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04123309185636945</v>
+        <v>0.04131916857014484</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0002780712974806976</v>
+        <v>-0.0001112594570538139</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02390520024786381</v>
+        <v>0.02395001869261779</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0004902922141595267</v>
+        <v>9.81065437062334E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04604365745874373</v>
+        <v>0.04593501190077051</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004714757190004804</v>
+        <v>0.0028422548555187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05623206248776988</v>
+        <v>0.05624498522635917</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002131438721136636</v>
+        <v>-0.00605197579209682</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01305249576022438</v>
+        <v>0.01308338179204342</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.01555411535968876</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0205838048724806</v>
+        <v>0.02063251218975746</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.001534919416730673</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0144595712934577</v>
+        <v>0.01434054860315997</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01057268722466964</v>
+        <v>0.001780943900267173</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04177473338334094</v>
+        <v>0.04185197805359832</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0005159958720329927</v>
+        <v>0.00103252452245739</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01666986008740461</v>
+        <v>0.01671431164745579</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0002995805871779389</v>
+        <v>0.003144654088050203</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002360707064118395</v>
+        <v>0.0002248393703276896</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03632513317591172</v>
+        <v>0.036274836638757</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001160092807424684</v>
+        <v>-0.000387146728610066</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02051693170976713</v>
+        <v>0.02047814302251544</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001666155298102212</v>
+        <v>-0.0005952149387278283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0192549000942019</v>
+        <v>0.01928938344446739</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002016129032258229</v>
+        <v>-0.00140845070422535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03796937987060707</v>
+        <v>0.03797412244336003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003497726477790231</v>
+        <v>-0.005244755244755206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03528525823926655</v>
+        <v>0.03535975016745178</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002336448598130758</v>
+        <v>-1.165501165489857E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01985968048765307</v>
+        <v>0.01989351721061175</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001929012345678993</v>
+        <v>0.0007701193685019092</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03657797633026841</v>
+        <v>0.0367755578202486</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005627705627705648</v>
+        <v>0.005596211795092509</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02028629584627672</v>
+        <v>0.02034975821371689</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003353879622915334</v>
+        <v>0.001174451169933866</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02518471055668041</v>
+        <v>0.02516883572647928</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0004056383733901381</v>
+        <v>0.009942173074972027</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02361784919104574</v>
+        <v>0.023606156669504</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0002703433360368157</v>
+        <v>0.007030827474310497</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05700770320228929</v>
+        <v>0.05681763167715909</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00311004784688973</v>
+        <v>0.005999520038396877</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02508204091218406</v>
+        <v>0.02508559497932667</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003665689149559004</v>
+        <v>-0.004030780505679732</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02694470322870349</v>
+        <v>0.02694283393174749</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0001554484688326419</v>
+        <v>0.01274479328566991</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0322200840965117</v>
+        <v>0.03227575708736233</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001953125</v>
+        <v>0.01577175261385788</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01905083779083726</v>
+        <v>0.01922488463240988</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009362808842652726</v>
+        <v>-0.005410976552434943</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03054805019454968</v>
+        <v>0.03032669797335846</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.007022824178580356</v>
+        <v>0.01077713227245947</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.042469477223905</v>
+        <v>0.04246963346903107</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0002285191956126198</v>
+        <v>-0.002056202878684021</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1266473482373888</v>
+        <v>0.1267027328907581</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006622516556291647</v>
+        <v>-0.003309066843150132</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00908845995320765</v>
+        <v>0.009054703776310969</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003490175801447615</v>
+        <v>-0.04423401219354006</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0154131654513087</v>
+        <v>0.01538932463462419</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001322291043218016</v>
+        <v>0.009547038327526236</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01695974828516971</v>
+        <v>0.01661214653067886</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02027545952588194</v>
+        <v>0.0008361640972041062</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.016012582505122</v>
+        <v>0.01598115102649629</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001738525730180851</v>
+        <v>0.005572971090212597</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02161052994257921</v>
+        <v>0.02151563935328374</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004167090151438124</v>
+        <v>0.00816493161869758</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01199523679865743</v>
+        <v>0.01227652923466108</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02368045649072759</v>
+        <v>0.01309921962095895</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04131916857014484</v>
+        <v>0.04130528436775537</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0001112594570538139</v>
+        <v>0.01001446533882255</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02395001869261779</v>
+        <v>0.02394698412134233</v>
       </c>
       <c r="E27" s="1">
-        <v>9.81065437062334E-05</v>
+        <v>0.0002942907592702326</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04593501190077051</v>
+        <v>0.04605521588564376</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0028422548555187</v>
+        <v>-0.001889466225791336</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05624498522635917</v>
+        <v>0.05589202520958794</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.00605197579209682</v>
+        <v>0.007521489971346496</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01308338179204342</v>
+        <v>0.01328389547903671</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01555411535968876</v>
+        <v>0.01021059349074682</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02063251218975746</v>
+        <v>0.02065953635618787</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001534919416730673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01434054860315997</v>
+        <v>0.01436285897955219</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001780943900267173</v>
+        <v>-0.02177777777777778</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04185197805359832</v>
+        <v>0.04188577367627295</v>
       </c>
       <c r="E33" s="1">
-        <v>0.00103252452245739</v>
+        <v>0.001031459515214106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01671431164745579</v>
+        <v>0.01676310337030039</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003144654088050203</v>
+        <v>0.000298552022690135</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002248393703276896</v>
+        <v>0.002027614377382525</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.036274836638757</v>
+        <v>0.03618741882373409</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.000387146728610066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02047814302251544</v>
+        <v>0.02042454103282145</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0005952149387278283</v>
+        <v>-0.005827238153812586</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01928938344446739</v>
+        <v>0.01922323798505262</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00140845070422535</v>
+        <v>-0.007455168245013133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03797412244336003</v>
+        <v>0.0376985194055575</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005244755244755206</v>
+        <v>-0.003514938488576425</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03535975016745178</v>
+        <v>0.03528778802281039</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.165501165489857E-05</v>
+        <v>-0.01708256117981177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01989351721061175</v>
+        <v>0.01986855183217059</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0007701193685019092</v>
+        <v>-0.0001923816852634763</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0367755578202486</v>
+        <v>0.03690652942102003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005596211795092509</v>
+        <v>-0.001712328767123239</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02034975821371689</v>
+        <v>0.02033243168025682</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001174451169933866</v>
+        <v>0.002887565421404226</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02516883572647928</v>
+        <v>0.02536763287023962</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009942173074972027</v>
+        <v>0.01145153189352088</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.023606156669504</v>
+        <v>0.02372402431159526</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007030827474310497</v>
+        <v>-0.008592910848549962</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05681763167715909</v>
+        <v>0.05704284929558187</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005999520038396877</v>
+        <v>-0.007633587786259555</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02508559497932667</v>
+        <v>0.02493392406918338</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004030780505679732</v>
+        <v>-0.002943340691685004</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02694283393174749</v>
+        <v>0.02723100081198085</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01274479328566991</v>
+        <v>0.01550030693677118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03227575708736233</v>
+        <v>0.03271846191977481</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01577175261385788</v>
+        <v>0.008199581297976266</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01922488463240988</v>
+        <v>0.01908216795434479</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005410976552434943</v>
+        <v>0.001295336787564549</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03032669797335846</v>
+        <v>0.03059150503337284</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01077713227245947</v>
+        <v>0.003581840899625099</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04246963346903107</v>
+        <v>0.04229654620124413</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.002056202878684021</v>
+        <v>-0.002747252747252849</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1267027328907581</v>
+        <v>0.1260279290375445</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003309066843150132</v>
+        <v>0.0006640106241699861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009054703776310969</v>
+        <v>0.008636666070763008</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.04423401219354006</v>
+        <v>0.01112920738327894</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01538932463462419</v>
+        <v>0.01550480933242469</v>
       </c>
       <c r="E21" s="1">
-        <v>0.009547038327526236</v>
+        <v>0.006557603368537279</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01661214653067886</v>
+        <v>0.01659239403448579</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0008361640972041062</v>
+        <v>0.002558613127251919</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01598115102649629</v>
+        <v>0.01603769525767074</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005572971090212597</v>
+        <v>0.01731901627987531</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02151563935328374</v>
+        <v>0.02164742045638525</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00816493161869758</v>
+        <v>0.00415063778092728</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01227652923466108</v>
+        <v>0.01241217508263688</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01309921962095895</v>
+        <v>-0.02806052269601123</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04130528436775537</v>
+        <v>0.04163451596320412</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01001446533882255</v>
+        <v>-0.0002203371157870615</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02394698412134233</v>
+        <v>0.02390556023983995</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0002942907592702326</v>
+        <v>9.80680592330696E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04605521588564376</v>
+        <v>0.04587517893832596</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.001889466225791336</v>
+        <v>-0.004259346900141958</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05589202520958794</v>
+        <v>0.05619846769559365</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007521489971346496</v>
+        <v>-0.01510842516885891</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01328389547903671</v>
+        <v>0.01339237735886655</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01021059349074682</v>
+        <v>0.001895135818066773</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,7 +1231,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02065953635618787</v>
+        <v>0.02061773154727361</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01436285897955219</v>
+        <v>0.01402163735494661</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02177777777777778</v>
+        <v>0.001817355747387506</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04188577367627295</v>
+        <v>0.04184413338961356</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001031459515214106</v>
+        <v>0.0005151983513651537</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01676310337030039</v>
+        <v>0.0167341775696842</v>
       </c>
       <c r="E34" s="1">
-        <v>0.000298552022690135</v>
+        <v>-0.01492314579913445</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002027614377382525</v>
+        <v>-0.001605041092698434</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03618741882373409</v>
+        <v>0.03624559449232355</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0007745933384972759</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02042454103282145</v>
+        <v>0.02033816596015705</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005827238153812586</v>
+        <v>0.005090054815975131</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01922323798505262</v>
+        <v>0.01911059880805312</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007455168245013133</v>
+        <v>0.005075111652456332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0376985194055575</v>
+        <v>0.03762640335228742</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003514938488576425</v>
+        <v>0.007407407407407307</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03528778802281039</v>
+        <v>0.0347407425443851</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01708256117981177</v>
+        <v>-0.01106719367588926</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01986855183217059</v>
+        <v>0.01989666445073644</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0001923816852634763</v>
+        <v>-0.003463536655762933</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03690652942102003</v>
+        <v>0.03690256343974444</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001712328767123239</v>
+        <v>0.007718696397941649</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02033243168025682</v>
+        <v>0.02042392414443577</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002887565421404226</v>
+        <v>-0.004498830304120904</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02536763287023962</v>
+        <v>0.02569937968757171</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01145153189352088</v>
+        <v>0.0001986294567484226</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02372402431159526</v>
+        <v>0.02355797740751682</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008592910848549962</v>
+        <v>0.008125677139761756</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05704284929558187</v>
+        <v>0.05669841097741513</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007633587786259555</v>
+        <v>0.007932692307692113</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02493392406918338</v>
+        <v>0.02490050136378484</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002943340691685004</v>
+        <v>0.007749077490774914</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02723100081198085</v>
+        <v>0.02769754538126583</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01550030693677118</v>
+        <v>-0.001813510654375294</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03271846191977481</v>
+        <v>0.03303976979644734</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008199581297976266</v>
+        <v>0.002249524139124492</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01908216795434479</v>
+        <v>0.01913760242679327</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001295336787564549</v>
+        <v>0.03053040103492877</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03059150503337284</v>
+        <v>0.03075043464851166</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003581840899625099</v>
+        <v>-0.004067065073041221</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04229654620124413</v>
+        <v>0.04224815692645118</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.002747252747252849</v>
+        <v>-0.0009182736455461971</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1260279290375445</v>
+        <v>0.1263143526479652</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006640106241699861</v>
+        <v>0.001327140013271499</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.008636666070763008</v>
+        <v>0.008746824331046602</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01112920738327894</v>
+        <v>0.01986577181208071</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01550480933242469</v>
+        <v>0.01563157303940328</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006557603368537279</v>
+        <v>0.0001371553970648254</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01659239403448579</v>
+        <v>0.0166615900884366</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002558613127251919</v>
+        <v>-0.001822916666666563</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01603769525767074</v>
+        <v>0.01634168143315402</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01731901627987531</v>
+        <v>0.004085801838610736</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02164742045638525</v>
+        <v>0.0217722163595273</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00415063778092728</v>
+        <v>-0.001613065833249383</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01241217508263688</v>
+        <v>0.01208327711833307</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02806052269601123</v>
+        <v>0.01245400509482053</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04163451596320412</v>
+        <v>0.04169226012478735</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0002203371157870615</v>
+        <v>0.009476584022038548</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02390556023983995</v>
+        <v>0.02394633947060758</v>
       </c>
       <c r="E27" s="1">
-        <v>9.80680592330696E-05</v>
+        <v>-0.0004902922141595267</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04587517893832596</v>
+        <v>0.0457532164296142</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004259346900141958</v>
+        <v>0.0004752851711029571</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05619846769559365</v>
+        <v>0.0554383782269771</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01510842516885891</v>
+        <v>0.003428983937917573</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01339237735886655</v>
+        <v>0.0134393284072403</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001895135818066773</v>
+        <v>-0.005044136191677095</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02061773154727361</v>
+        <v>0.02065087705354481</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>-0.001149425287356398</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01402163735494661</v>
+        <v>0.01406970210822714</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001817355747387506</v>
+        <v>-0.01088435374149654</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04184413338961356</v>
+        <v>0.04193299559922689</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0005151983513651537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0167341775696842</v>
+        <v>0.01651095175402797</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01492314579913445</v>
+        <v>0.01287683684290242</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001605041092698434</v>
+        <v>0.002589080420605239</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03624559449232355</v>
+        <v>0.03617999716608691</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0007745933384972759</v>
+        <v>-0.003869969040247723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02033816596015705</v>
+        <v>0.02038889983838142</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005090054815975131</v>
+        <v>0.002337358784573418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01911059880805312</v>
+        <v>0.01915798566516538</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005075111652456332</v>
+        <v>-0.0006059381943042119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03762640335228742</v>
+        <v>0.03780723148838938</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007407407407407307</v>
+        <v>-0.0003501400560222967</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0347407425443851</v>
+        <v>0.0342675386049378</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01106719367588926</v>
+        <v>-0.0007993605115907965</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01989666445073644</v>
+        <v>0.01977654854944738</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003463536655762933</v>
+        <v>-0.001351612280362957</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03690256343974444</v>
+        <v>0.03709137058189461</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007718696397941649</v>
+        <v>-0.006170212765957417</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02042392414443577</v>
+        <v>0.02027953502848449</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004498830304120904</v>
+        <v>0.0009038322487346928</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02569937968757171</v>
+        <v>0.025638105225138</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0001986294567484226</v>
+        <v>0.0006950650382284707</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02355797740751682</v>
+        <v>0.02368807160360531</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008125677139761756</v>
+        <v>-0.003761418592154731</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05669841097741513</v>
+        <v>0.05700060288115176</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007932692307692113</v>
+        <v>-0.002861912711662251</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02490050136378484</v>
+        <v>0.02502865607501408</v>
       </c>
       <c r="E13" s="1">
-        <v>0.007749077490774914</v>
+        <v>0.0003661662394727205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02769754538126583</v>
+        <v>0.02757591931483863</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001813510654375294</v>
+        <v>0.005601816805450577</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03303976979644734</v>
+        <v>0.03302857990659899</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002249524139124492</v>
+        <v>0.01174033149171261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01913760242679327</v>
+        <v>0.019670951428532</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03053040103492877</v>
+        <v>0.003012804418779824</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03075043464851166</v>
+        <v>0.03054628384434822</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.004067065073041221</v>
+        <v>-0.005667138928243998</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04224815692645118</v>
+        <v>0.04210036033871932</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0009182736455461971</v>
+        <v>-0.00022977941176483</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1263143526479652</v>
+        <v>0.1261553630990606</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001327140013271499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.008746824331046602</v>
+        <v>0.008897550274081555</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01986577181208071</v>
+        <v>0.0001316135825215614</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01563157303940328</v>
+        <v>0.01559334457089001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0001371553970648254</v>
+        <v>-0.00329127811300034</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0166615900884366</v>
+        <v>0.01658826903559942</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001822916666666563</v>
+        <v>-0.006574484737803421</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01634168143315402</v>
+        <v>0.01636607721511982</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004085801838610736</v>
+        <v>-0.01186842997626303</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0217722163595273</v>
+        <v>0.02168096258547372</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001613065833249383</v>
+        <v>-0.009088155104513773</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01208327711833307</v>
+        <v>0.01220216991391391</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01245400509482053</v>
+        <v>0.00475258596589323</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04169226012478735</v>
+        <v>0.04197867416755839</v>
       </c>
       <c r="E26" s="1">
-        <v>0.009476584022038548</v>
+        <v>-0.006167448968453226</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02394633947060758</v>
+        <v>0.02387279019313327</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0004902922141595267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0457532164296142</v>
+        <v>0.04565675324900804</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0004752851711029571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0554383782269771</v>
+        <v>0.05548482087210086</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003428983937917573</v>
+        <v>-0.007374100719424459</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0134393284072403</v>
+        <v>0.01333700801810038</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005044136191677095</v>
+        <v>-0.01394169835234471</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02065087705354481</v>
+        <v>0.0205738730014892</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001149425287356398</v>
+        <v>0.003452243958573131</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01406970210822714</v>
+        <v>0.01388062444047909</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01088435374149654</v>
+        <v>-0.01100412654745531</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04193299559922689</v>
+        <v>0.04182470806647446</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>-0.001029866117404854</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01651095175402797</v>
+        <v>0.01668037375678356</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01287683684290242</v>
+        <v>-0.01675142087944959</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002589080420605239</v>
+        <v>-0.001939086957599701</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03617999716608691</v>
+        <v>0.0361100021313497</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003869969040247723</v>
+        <v>0.0007770007770007137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02038889983838142</v>
+        <v>0.02047626126368326</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002337358784573418</v>
+        <v>-0.002331908278274342</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01915798566516538</v>
+        <v>0.01918357573142586</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0006059381943042119</v>
+        <v>0.0008892481810833797</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03780723148838938</v>
+        <v>0.03786742188613532</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0003501400560222967</v>
+        <v>-0.002802101576182214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0342675386049378</v>
+        <v>0.03430667010430554</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0007993605115907965</v>
+        <v>-0.0008000000000000229</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01977654854944738</v>
+        <v>0.01978818934343512</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001351612280362957</v>
+        <v>0.002513534416086705</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03709137058189461</v>
+        <v>0.03693412741839068</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006170212765957417</v>
+        <v>0.004281738385784495</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02027953502848449</v>
+        <v>0.02033730011964738</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009038322487346928</v>
+        <v>0.001354524110529276</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025638105225138</v>
+        <v>0.02570577110120381</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0006950650382284707</v>
+        <v>-0.01409009724151622</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02368807160360531</v>
+        <v>0.02364482021315333</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003761418592154731</v>
+        <v>0.005124056094929941</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05700060288115176</v>
+        <v>0.05694789905952281</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002861912711662251</v>
+        <v>0.003348481224587418</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02502865607501408</v>
+        <v>0.02508646556207181</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0003661662394727205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02757591931483863</v>
+        <v>0.02778427067998422</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005601816805450577</v>
+        <v>-0.01460403492923812</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03302857990659899</v>
+        <v>0.03348126947636849</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01174033149171261</v>
+        <v>0.001535836177474437</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.019670951428532</v>
+        <v>0.01976854909363563</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003012804418779824</v>
+        <v>0.0005006257822277593</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03054628384434822</v>
+        <v>0.03043218446204233</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005667138928243998</v>
+        <v>-0.01081216997736989</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04210036033871932</v>
+        <v>0.04217246261491203</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00022977941176483</v>
+        <v>-0.001608825557343097</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1261553630990606</v>
+        <v>0.1264004645913843</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>-0.000662690523525411</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.008897550274081555</v>
+        <v>0.008916010231702912</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0001316135825215614</v>
+        <v>0.02250296091590998</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01559334457089001</v>
+        <v>0.01557221842283999</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.00329127811300034</v>
+        <v>-0.01692350027517897</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01658826903559942</v>
+        <v>0.01651122641779902</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006574484737803421</v>
+        <v>-0.0127632753821102</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01636607721511982</v>
+        <v>0.01620325709821584</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01186842997626303</v>
+        <v>-0.03637611530542217</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02168096258547372</v>
+        <v>0.02152566276660619</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.009088155104513773</v>
+        <v>-0.01447060022419244</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01220216991391391</v>
+        <v>0.01228398148368262</v>
       </c>
       <c r="E25" s="1">
-        <v>0.00475258596589323</v>
+        <v>0.007234279354479733</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04197867416755839</v>
+        <v>0.04180082827779699</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.006167448968453226</v>
+        <v>-0.0008237684661429601</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02387279019313327</v>
+        <v>0.0239191715467161</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>9.81065437062334E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04565675324900804</v>
+        <v>0.0457454576693441</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>-0.003800475059382635</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05548482087210086</v>
+        <v>0.05518267421845324</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.007374100719424459</v>
+        <v>0.003623844899438344</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01333700801810038</v>
+        <v>0.01317661808366053</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01394169835234471</v>
+        <v>0.001928020565552746</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0205738730014892</v>
+        <v>0.02068500906155213</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003452243958573131</v>
+        <v>-0.002293577981651418</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01388062444047909</v>
+        <v>0.01375455156412399</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01100412654745531</v>
+        <v>-0.02225312934631429</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04182470806647446</v>
+        <v>0.04186280984534603</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001029866117404854</v>
+        <v>0.002061855670103308</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01668037375678356</v>
+        <v>0.01643281845950859</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01675142087944959</v>
+        <v>0.01445086705202314</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001939086957599701</v>
+        <v>-0.00187218002997791</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0361100021313497</v>
+        <v>0.03620584348821039</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0007770007770007137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02047626126368326</v>
+        <v>0.02046683009110789</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002331908278274342</v>
+        <v>0.001168679392286487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01918357573142586</v>
+        <v>0.01923664916165584</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008892481810833797</v>
+        <v>0.001187303125757211</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03786742188613532</v>
+        <v>0.03783214210452159</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002802101576182214</v>
+        <v>0.0003512469265893881</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03430667010430554</v>
+        <v>0.03434352202431512</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0008000000000000229</v>
+        <v>0.0004003202562048447</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01978818934343512</v>
+        <v>0.0198751374738535</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002513534416086705</v>
+        <v>-0.0006750241080039077</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03693412741839068</v>
+        <v>0.03716184335050143</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004281738385784495</v>
+        <v>0.004903005755702461</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02033730011964738</v>
+        <v>0.02040304565763346</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001354524110529276</v>
+        <v>0.001893768599513068</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02570577110120381</v>
+        <v>0.02539111101770599</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01409009724151622</v>
+        <v>0.01187600644122377</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02364482021315333</v>
+        <v>0.02381055524431115</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005124056094929941</v>
+        <v>0.01046418030587604</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05694789905952281</v>
+        <v>0.05724576240347597</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003348481224587418</v>
+        <v>0.009535160905840279</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02508646556207181</v>
+        <v>0.02513352003636694</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>-0.001830161054172774</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02778427067998422</v>
+        <v>0.02742986186008983</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01460403492923812</v>
+        <v>0.00916730328495019</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03348126947636849</v>
+        <v>0.03359558821064139</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001535836177474437</v>
+        <v>0.01022320667916166</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01976854909363563</v>
+        <v>0.01981554400475799</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0005006257822277593</v>
+        <v>-0.01951463597698266</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03043218446204233</v>
+        <v>0.03015961073178</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01081216997736989</v>
+        <v>0.02491103202846978</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04217246261491203</v>
+        <v>0.04218358975357048</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001608825557343097</v>
+        <v>-0.0009208103130755596</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1264004645913843</v>
+        <v>0.1265536313827263</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.000662690523525411</v>
+        <v>-0.001326259946949571</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.008916010231702912</v>
+        <v>0.009133746879980349</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02250296091590998</v>
+        <v>0.001029601029600924</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01557221842283999</v>
+        <v>0.01533739634722905</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01692350027517897</v>
+        <v>0.008467459762071528</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01651122641779902</v>
+        <v>0.01633106377960876</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0127632753821102</v>
+        <v>0.0283570972547349</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01620325709821584</v>
+        <v>0.01564313230960408</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.03637611530542217</v>
+        <v>0.004273504273504258</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02152566276660619</v>
+        <v>0.02125396475452111</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01447060022419244</v>
+        <v>0.005376900010340302</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01228398148368262</v>
+        <v>0.01239605488372466</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007234279354479733</v>
+        <v>0.006629834254143541</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04180082827779699</v>
+        <v>0.04184473495073757</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0008237684661429601</v>
+        <v>0.01330108827085863</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0239191715467161</v>
+        <v>0.02396638756615693</v>
       </c>
       <c r="E27" s="1">
-        <v>9.81065437062334E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0457454576693441</v>
+        <v>0.04565708147455545</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003800475059382635</v>
+        <v>0.001430615164520921</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05518267421845324</v>
+        <v>0.05548652844143801</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003623844899438344</v>
+        <v>0.01245712222422823</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01317661808366053</v>
+        <v>0.01322678579854308</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001928020565552746</v>
+        <v>0.0006414368184732844</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02068500906155213</v>
+        <v>0.02067627609141095</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002293577981651418</v>
+        <v>0.001915708812260553</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01375455156412399</v>
+        <v>0.01347369493164803</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02225312934631429</v>
+        <v>0.005215742057847361</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04186280984534603</v>
+        <v>0.0420278085410464</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002061855670103308</v>
+        <v>-0.0005144032921812203</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01643281845950859</v>
+        <v>0.01670155525257041</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01445086705202314</v>
+        <v>0.007497375918428473</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.00187218002997791</v>
+        <v>0.004485373493430256</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03620584348821039</v>
+        <v>0.03604417191491061</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.003881987577639689</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02046683009110789</v>
+        <v>0.02039925099396663</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001168679392286487</v>
+        <v>0.003501945525291816</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01923664916165584</v>
+        <v>0.01917348863762279</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001187303125757211</v>
+        <v>0.003170454270432721</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03783214210452159</v>
+        <v>0.03767643763347404</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003512469265893881</v>
+        <v>0.008075842696629199</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03434352202431512</v>
+        <v>0.03420385337455149</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004003202562048447</v>
+        <v>0.0004001600640257674</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0198751374738535</v>
+        <v>0.01977303184399096</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0006750241080039077</v>
+        <v>0.0003859886133359414</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03716184335050143</v>
+        <v>0.0371772940331278</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004903005755702461</v>
+        <v>0.007424692405600508</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02040304565763346</v>
+        <v>0.02035040513705201</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001893768599513068</v>
+        <v>0.004500450045004545</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02539111101770599</v>
+        <v>0.02557792944893501</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01187600644122377</v>
+        <v>0.003182812810821556</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02381055524431115</v>
+        <v>0.02395227827349544</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01046418030587604</v>
+        <v>0.006903876792352603</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05724576240347597</v>
+        <v>0.05753355049678938</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009535160905840279</v>
+        <v>0.008028335301062395</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02513352003636694</v>
+        <v>0.02497549721365475</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001830161054172774</v>
+        <v>0.005867253392005667</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02742986186008983</v>
+        <v>0.02755771308700555</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00916730328495019</v>
+        <v>0.003179409538228928</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03359558821064139</v>
+        <v>0.03378749332545533</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01022320667916166</v>
+        <v>-0.009613762860516184</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01981554400475799</v>
+        <v>0.01934209435947186</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01951463597698266</v>
+        <v>0.009951518244450064</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03015961073178</v>
+        <v>0.03077288985620827</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02491103202846978</v>
+        <v>0.01430224867724861</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04218358975357048</v>
+        <v>0.04195655584561729</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0009208103130755596</v>
+        <v>0.003917050691244262</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1265536313827263</v>
+        <v>0.1258214322531487</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001326259946949571</v>
+        <v>0.003984063745019695</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009133746879980349</v>
+        <v>0.009102323673836841</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001029601029600924</v>
+        <v>0.008099768578040401</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01533739634722905</v>
+        <v>0.01539819846242422</v>
       </c>
       <c r="E21" s="1">
-        <v>0.008467459762071528</v>
+        <v>0.002775657483866434</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01633106377960876</v>
+        <v>0.01671917360535887</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0283570972547349</v>
+        <v>0.01158880438719034</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01564313230960408</v>
+        <v>0.0156398328108487</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004273504273504258</v>
+        <v>0.003191489361702216</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02125396475452111</v>
+        <v>0.02127282861622397</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005376900010340302</v>
+        <v>0.01398745243237665</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01239605488372466</v>
+        <v>0.01242251903540598</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006629834254143541</v>
+        <v>-0.006311745334796837</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04184473495073757</v>
+        <v>0.04221197897239997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01330108827085863</v>
+        <v>0.001627251030592358</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02396638756615693</v>
+        <v>0.02385936938315576</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>9.809691975681822E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04565708147455545</v>
+        <v>0.04551823291230806</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001430615164520921</v>
+        <v>0.00619047619047608</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05548652844143801</v>
+        <v>0.05592687797200517</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01245712222422823</v>
+        <v>0.008024251069900235</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01322678579854308</v>
+        <v>0.01317616990271775</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0006414368184732844</v>
+        <v>0.01346153846153841</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02067627609141095</v>
+        <v>0.02062338224366338</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001915708812260553</v>
+        <v>-0.0003824091778201755</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01347369493164803</v>
+        <v>0.01348349175247221</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005215742057847361</v>
+        <v>0.01320754716981143</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0420278085410464</v>
+        <v>0.04181861718093445</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0005144032921812203</v>
+        <v>0.001029336078229637</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01670155525257041</v>
+        <v>0.01675163574776671</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007497375918428473</v>
+        <v>0.01518083048072616</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>0.004485373493430256</v>
+        <v>0.004907366177980155</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03604417191491061</v>
+        <v>0.0360073934776213</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003881987577639689</v>
+        <v>-0.002320185614849146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02039925099396663</v>
+        <v>0.02037072147014063</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003501945525291816</v>
+        <v>-0.001547111283443092</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01917348863762279</v>
+        <v>0.01914034860716349</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003170454270432721</v>
+        <v>-0.003216726980297624</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03767643763347404</v>
+        <v>0.03779523157604612</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008075842696629199</v>
+        <v>-0.008011145942180442</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03420385337455149</v>
+        <v>0.03405044240132226</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004001600640257674</v>
+        <v>-0.000400000000000067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01977303184399096</v>
+        <v>0.01968406708408036</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003859886133359414</v>
+        <v>-0.001639818655348679</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0371772940331278</v>
+        <v>0.03727042438572686</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007424692405600508</v>
+        <v>0.0008422825858074301</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02035040513705201</v>
+        <v>0.02034216466788882</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004500450045004545</v>
+        <v>-0.002240143369175662</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02557792944893501</v>
+        <v>0.02553403435388374</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003182812810821556</v>
+        <v>0.02855443188578222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02395227827349544</v>
+        <v>0.02399986572227026</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006903876792352603</v>
+        <v>-0.001318565400843852</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05753355049678938</v>
+        <v>0.05771223406572839</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008028335301062395</v>
+        <v>-0.002108222066057541</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02497549721365475</v>
+        <v>0.02499935380108379</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005867253392005667</v>
+        <v>-0.003645643456069991</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02755771308700555</v>
+        <v>0.0275103270941193</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003179409538228928</v>
+        <v>0.0007546030787803915</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03378749332545533</v>
+        <v>0.03329925673074082</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.009613762860516184</v>
+        <v>0.01362397820163497</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01934209435947186</v>
+        <v>0.01943918237824543</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009951518244450064</v>
+        <v>0.007074279939363493</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03077288985620827</v>
+        <v>0.03106058571165969</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01430224867724861</v>
+        <v>0.004727361643165784</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04195655584561729</v>
+        <v>0.04191520852503584</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003917050691244262</v>
+        <v>-0.00367225154923112</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1258214322531487</v>
+        <v>0.1257058283294162</v>
       </c>
       <c r="E19" s="1">
-        <v>0.003984063745019695</v>
+        <v>-0.003968253968253843</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009102323673836841</v>
+        <v>0.00913124005053035</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008099768578040401</v>
+        <v>-0.003060834077285968</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01539819846242422</v>
+        <v>0.01536553428397274</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002775657483866434</v>
+        <v>0.008926717874195633</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01671917360535887</v>
+        <v>0.01683033621508092</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01158880438719034</v>
+        <v>0.007466884877000979</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0156398328108487</v>
+        <v>0.01561312783541135</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003191489361702216</v>
+        <v>0.003534817956875269</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02127282861622397</v>
+        <v>0.02146504446139681</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01398745243237665</v>
+        <v>0.0004057206613248265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01242251903540598</v>
+        <v>0.01228383000692578</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006311745334796837</v>
+        <v>0.009942004971002394</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04221197897239997</v>
+        <v>0.04207419497728886</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001627251030592358</v>
+        <v>0.006065200909780133</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02385936938315576</v>
+        <v>0.0237451836028968</v>
       </c>
       <c r="E27" s="1">
-        <v>9.809691975681822E-05</v>
+        <v>9.808729769500424E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04551823291230806</v>
+        <v>0.04557635259812849</v>
       </c>
       <c r="E28" s="1">
-        <v>0.00619047619047608</v>
+        <v>-0.0009465215333647192</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05592687797200517</v>
+        <v>0.05610034434997212</v>
       </c>
       <c r="E29" s="1">
-        <v>0.008024251069900235</v>
+        <v>-0.01202901114452504</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01317616990271775</v>
+        <v>0.01328833071592182</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01346153846153841</v>
+        <v>-0.02277039848197349</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02062338224366338</v>
+        <v>0.02051482192973047</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0003824091778201755</v>
+        <v>-0.002295332823259555</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01348349175247221</v>
+        <v>0.01359486064647588</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01320754716981143</v>
+        <v>0.0009310986964619072</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04181861718093445</v>
+        <v>0.0416572352848355</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001029336078229637</v>
+        <v>-0.001542416452442241</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01675163574776671</v>
+        <v>0.01692289265925879</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01518083048072616</v>
+        <v>-0.007623515613546239</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>0.004907366177980155</v>
+        <v>-0.0005186269717326608</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0360073934776213</v>
+        <v>0.03594249038619183</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002320185614849146</v>
+        <v>-0.003488372093023218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02037072147014063</v>
+        <v>0.02034975963131538</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001547111283443092</v>
+        <v>-0.00349901553780374</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01914034860716349</v>
+        <v>0.0190886792352927</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003216726980297624</v>
+        <v>-0.001613553852359839</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03779523157604612</v>
+        <v>0.03751190314470377</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008011145942180442</v>
+        <v>-0.01544943820224731</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03405044240132226</v>
+        <v>0.03405448379816789</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000400000000000067</v>
+        <v>-0.0004001600640255454</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01968406708408036</v>
+        <v>0.01966198601993052</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001639818655348679</v>
+        <v>-0.001352657004830893</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03727042438572686</v>
+        <v>0.03732117238176648</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0008422825858074301</v>
+        <v>-0.00610140963601935</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02034216466788882</v>
+        <v>0.02030712712643954</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002240143369175662</v>
+        <v>-0.002334979793443992</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02553403435388374</v>
+        <v>0.02627677204132164</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02855443188578222</v>
+        <v>-0.001060343165606326</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02399986572227026</v>
+        <v>0.02398065734540318</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001318565400843852</v>
+        <v>-0.01109057301293903</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05771223406572839</v>
+        <v>0.05762044737852334</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002108222066057541</v>
+        <v>-0.01161971830985919</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02499935380108379</v>
+        <v>0.02492113984578324</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003645643456069991</v>
+        <v>-0.007683863885839637</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0275103270941193</v>
+        <v>0.02754537224463526</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0007546030787803915</v>
+        <v>-0.007691147639873441</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03329925673074082</v>
+        <v>0.03377043933925968</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01362397820163497</v>
+        <v>-0.01646505376344098</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01943918237824543</v>
+        <v>0.01958685886948271</v>
       </c>
       <c r="E16" s="1">
-        <v>0.007074279939363493</v>
+        <v>-0.01279478173607618</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03106058571165969</v>
+        <v>0.0312236137414085</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004727361643165784</v>
+        <v>-0.005597468970552466</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04191520852503584</v>
+        <v>0.04178295510306858</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00367225154923112</v>
+        <v>-0.004837595024187902</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1257058283294162</v>
+        <v>0.1252719650972167</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003968253968253843</v>
+        <v>-0.005976095617529875</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00913124005053035</v>
+        <v>0.00910801450179537</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003060834077285968</v>
+        <v>-0.009082768325444635</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01536553428397274</v>
+        <v>0.01551074236285302</v>
       </c>
       <c r="E21" s="1">
-        <v>0.008926717874195633</v>
+        <v>-0.01159122085048003</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01683033621508092</v>
+        <v>0.01696480480338136</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007466884877000979</v>
+        <v>-0.004111883851972142</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01561312783541135</v>
+        <v>0.0156764476286081</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003534817956875269</v>
+        <v>-0.01127157449806271</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02146504446139681</v>
+        <v>0.02148489591994</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0004057206613248265</v>
+        <v>-0.01135557132718235</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01228383000692578</v>
+        <v>0.0124123933078708</v>
       </c>
       <c r="E25" s="1">
-        <v>0.009942004971002394</v>
+        <v>-0.01011758271807495</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04207419497728886</v>
+        <v>0.04235134797429208</v>
       </c>
       <c r="E26" s="1">
-        <v>0.006065200909780133</v>
+        <v>-0.00802023899235671</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0237451836028968</v>
+        <v>0.02375983519516581</v>
       </c>
       <c r="E27" s="1">
-        <v>9.808729769500424E-05</v>
+        <v>0.0001961553550411388</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04557635259812849</v>
+        <v>0.04555684060526696</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0009465215333647192</v>
+        <v>-0.00710563713879675</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05610034434997212</v>
+        <v>0.05545427276412791</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01202901114452504</v>
+        <v>-0.006624888093106573</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01328833071592182</v>
+        <v>0.01299248838526655</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02277039848197349</v>
+        <v>-0.01229773462783168</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02051482192973047</v>
+        <v>0.02047835421242309</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002295332823259555</v>
+        <v>-0.0007668711656441118</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01359486064647588</v>
+        <v>0.01361457969173933</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0009310986964619072</v>
+        <v>-0.007906976744186056</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0416572352848355</v>
+        <v>0.04161456491555103</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001542416452442241</v>
+        <v>-0.000514933058702316</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01692289265925879</v>
+        <v>0.0168025950018076</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.007623515613546239</v>
+        <v>-0.01152312010636736</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0005186269717326608</v>
+        <v>-0.00682395966389171</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03594249038619183</v>
+        <v>0.03606320345147849</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003488372093023218</v>
+        <v>-0.01244651886425518</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02034975963131538</v>
+        <v>0.02041788633897391</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00349901553780374</v>
+        <v>-0.007794232268121593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0190886792352927</v>
+        <v>0.01918882237324876</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001613553852359839</v>
+        <v>-0.001616161616161627</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03751190314470377</v>
+        <v>0.03718612191119957</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01544943820224731</v>
+        <v>-0.006062767475035646</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03405448379816789</v>
+        <v>0.0342747460382057</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0004001600640255454</v>
+        <v>0.0004003202562048447</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01966198601993052</v>
+        <v>0.01977030183910479</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001352657004830893</v>
+        <v>-0.004063467492260053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03732117238176648</v>
+        <v>0.03734832407799099</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00610140963601935</v>
+        <v>-0.01926333615580034</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02030712712643954</v>
+        <v>0.02039891174587756</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002334979793443992</v>
+        <v>-0.009091727428211405</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02627677204132164</v>
+        <v>0.02642926186257004</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001060343165606326</v>
+        <v>-0.02325581395348841</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02398065734540318</v>
+        <v>0.02387763815384656</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01109057301293903</v>
+        <v>-0.01682242990654204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05762044737852334</v>
+        <v>0.05734221497311155</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01161971830985919</v>
+        <v>-0.01757510984443655</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02492113984578324</v>
+        <v>0.02489956281160318</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007683863885839637</v>
+        <v>-0.009218289085545672</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02754537224463526</v>
+        <v>0.0275213211050242</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.007691147639873441</v>
+        <v>-0.0218844984802431</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03377043933925968</v>
+        <v>0.03344261831838332</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01646505376344098</v>
+        <v>-0.002220703792278678</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01958685886948271</v>
+        <v>0.01946910567718551</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01279478173607618</v>
+        <v>0.008640406607369533</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0312236137414085</v>
+        <v>0.03126217233536462</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005597468970552466</v>
+        <v>-0.02373959862946651</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04178295510306858</v>
+        <v>0.04186652154163367</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.004837595024187902</v>
+        <v>-0.007638888888888973</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1252719650972167</v>
+        <v>0.1253789084696998</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.005976095617529875</v>
+        <v>-0.006680026720107035</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00910801450179537</v>
+        <v>0.009087299884033102</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.009082768325444635</v>
+        <v>0.006971340046475705</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01551074236285302</v>
+        <v>0.01543629054662054</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01159122085048003</v>
+        <v>-0.0242176115467353</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01696480480338136</v>
+        <v>0.01701113076664727</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.004111883851972142</v>
+        <v>-0.0170251809562646</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0156764476286081</v>
+        <v>0.0156062457729567</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01127157449806271</v>
+        <v>-0.02030637691485571</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02148489591994</v>
+        <v>0.02138686576115522</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01135557132718235</v>
+        <v>-0.02471541380371256</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0124123933078708</v>
+        <v>0.01237123067094034</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01011758271807495</v>
+        <v>-0.01160220994475136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04235134797429208</v>
+        <v>0.04230033582734467</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.00802023899235671</v>
+        <v>-0.01497639589776967</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02375983519516581</v>
+        <v>0.02392777800603397</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001961553550411388</v>
+        <v>-0.0001961168856638995</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04555684060526696</v>
+        <v>0.04554392010043681</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00710563713879675</v>
+        <v>-0.01335877862595425</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05545427276412791</v>
+        <v>0.05546538798311986</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.006624888093106573</v>
+        <v>-0.02469358327325166</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01299248838526655</v>
+        <v>0.01292088178708635</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01229773462783168</v>
+        <v>-0.02883355176933156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02047835421242309</v>
+        <v>0.0206032456704582</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0007668711656441118</v>
+        <v>-0.003453568687643904</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01361457969173933</v>
+        <v>0.01359973355998791</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007906976744186056</v>
+        <v>-0.03469292076887009</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04161456491555103</v>
+        <v>0.04187891623551113</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.000514933058702316</v>
+        <v>-0.003091190108191699</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0168025950018076</v>
+        <v>0.01672309440316578</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01152312010636736</v>
+        <v>-0.01120908683305932</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.00682395966389171</v>
+        <v>-0.01193527409246031</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03606320345147849</v>
+        <v>0.03604454361702097</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01244651886425518</v>
+        <v>-0.001575423395037467</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02041788633897391</v>
+        <v>0.02050345899335304</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007794232268121593</v>
+        <v>0.003142183817753219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01918882237324876</v>
+        <v>0.0193892258601513</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001616161616161627</v>
+        <v>0.003642250101173472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03718612191119957</v>
+        <v>0.03740713551615273</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006062767475035646</v>
+        <v>0.004305705059203468</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0342747460382057</v>
+        <v>0.03470265258364227</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004003202562048447</v>
+        <v>0.0004001600640257674</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01977030183910479</v>
+        <v>0.01992780973147699</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004063467492260053</v>
+        <v>0.003108606955507964</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03734832407799099</v>
+        <v>0.03707132720761505</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01926333615580034</v>
+        <v>0.006043600259011406</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02039891174587756</v>
+        <v>0.02045761767467795</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.009091727428211405</v>
+        <v>0.005178052325581328</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02642926186257004</v>
+        <v>0.02612645425840426</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02325581395348841</v>
+        <v>0.01758545741948225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02387763815384656</v>
+        <v>0.02375953482005643</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01682242990654204</v>
+        <v>0.0130363932645301</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05734221497311155</v>
+        <v>0.05701490779816326</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01757510984443655</v>
+        <v>0.01390064063822072</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02489956281160318</v>
+        <v>0.02496803174593916</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009218289085545672</v>
+        <v>-0.002605135839225947</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0275213211050242</v>
+        <v>0.02724419776285589</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0218844984802431</v>
+        <v>0.021286513362337</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03344261831838332</v>
+        <v>0.03377142336339459</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002220703792278678</v>
+        <v>0.006848142441362892</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01946910567718551</v>
+        <v>0.01987453468544918</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008640406607369533</v>
+        <v>0.01033005794910569</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03126217233536462</v>
+        <v>0.03088868584373877</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02373959862946651</v>
+        <v>0.01947020974346114</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04186652154163367</v>
+        <v>0.04204856903200558</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007638888888888973</v>
+        <v>0.001399580125962308</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1253789084696998</v>
+        <v>0.126045764761608</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.006680026720107035</v>
+        <v>0.002689979825151401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009087299884033102</v>
+        <v>0.00926118532692694</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006971340046475705</v>
+        <v>0.008846153846153726</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01543629054662054</v>
+        <v>0.01524440662994526</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0242176115467353</v>
+        <v>0.01991181908690076</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01701113076664727</v>
+        <v>0.01692349979574027</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0170251809562646</v>
+        <v>0.01897946484131907</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0156062457729567</v>
+        <v>0.01547402620817364</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02030637691485571</v>
+        <v>0.00363636363636366</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02138686576115522</v>
+        <v>0.02111023698851858</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02471541380371256</v>
+        <v>0.01219768664563636</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01237123067094034</v>
+        <v>0.01237540085664932</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01160220994475136</v>
+        <v>0.01984348798211277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04230033582734467</v>
+        <v>0.04217014144808648</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01497639589776967</v>
+        <v>0.01542444774968321</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02392777800603397</v>
+        <v>0.0242120629726531</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001961168856638995</v>
+        <v>-9.80776775205694E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04554392010043681</v>
+        <v>0.04547830498936552</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01335877862595425</v>
+        <v>0.006286266924564687</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05546538798311986</v>
+        <v>0.05474919546033628</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02469358327325166</v>
+        <v>0.01646276104232114</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01292088178708635</v>
+        <v>0.01269990370483807</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02883355176933156</v>
+        <v>0.01619433198380582</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0206032456704582</v>
+        <v>0.02078010722170867</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.003453568687643904</v>
+        <v>0.001155179052753308</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01359973355998791</v>
+        <v>0.01328649706531673</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.03469292076887009</v>
+        <v>0.004856726566294212</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04187891623551113</v>
+        <v>0.04225377088080455</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003091190108191699</v>
+        <v>0.001033591731266048</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01672309440316578</v>
+        <v>0.01673538519523123</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01120908683305932</v>
+        <v>0.008162031438936124</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01193527409246031</v>
+        <v>0.007733408778782813</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03604454361702097</v>
+        <v>0.03571158590777979</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001575423395037467</v>
+        <v>-0.0003944773175542649</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02050345899335304</v>
+        <v>0.0204100454060911</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003142183817753219</v>
+        <v>-0.006264682850430692</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0193892258601513</v>
+        <v>0.01931051020089176</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003642250101173472</v>
+        <v>-0.0008064516129030475</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03740713551615273</v>
+        <v>0.03727989891128229</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004305705059203468</v>
+        <v>0.004644515898535317</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03470265258364227</v>
+        <v>0.03445012232093515</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004001600640257674</v>
+        <v>-0.000400000000000067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01992780973147699</v>
+        <v>0.01983635481892061</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003108606955507964</v>
+        <v>0.00244625217896588</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03707132720761505</v>
+        <v>0.03700916449274528</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006043600259011406</v>
+        <v>0.01609096760351858</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02045761767467795</v>
+        <v>0.02040574234248521</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005178052325581328</v>
+        <v>0.005241753276095773</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02612645425840426</v>
+        <v>0.02638187805989829</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01758545741948225</v>
+        <v>0.0005825242718446866</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02375953482005643</v>
+        <v>0.02388456436005355</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0130363932645301</v>
+        <v>0.01474530831099186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05701490779816326</v>
+        <v>0.05736383356838443</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01390064063822072</v>
+        <v>0.01072961373390569</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02496803174593916</v>
+        <v>0.02471187956523288</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002605135839225947</v>
+        <v>0.002611940298507642</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02724419776285589</v>
+        <v>0.02761060762716959</v>
       </c>
       <c r="E14" s="1">
-        <v>0.021286513362337</v>
+        <v>-0.009432527004412217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03377142336339459</v>
+        <v>0.03374175608828996</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006848142441362892</v>
+        <v>-0.002040469307940884</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01987453468544918</v>
+        <v>0.01992574584263813</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01033005794910569</v>
+        <v>-0.001995012468827828</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03088868584373877</v>
+        <v>0.03124843809036496</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01947020974346114</v>
+        <v>0.002213114754098466</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04204856903200558</v>
+        <v>0.04178428442158687</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001399580125962308</v>
+        <v>0.005590496156534064</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.126045764761608</v>
+        <v>0.1254149403253598</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002689979825151401</v>
+        <v>0.004694835680751019</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00926118532692694</v>
+        <v>0.009271411581411284</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008846153846153726</v>
+        <v>-0.00508323802262034</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01524440662994526</v>
+        <v>0.01542863455890541</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01991181908690076</v>
+        <v>0.004601868637568174</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01692349979574027</v>
+        <v>0.0171123618755515</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01897946484131907</v>
+        <v>0.007430025445292587</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01547402620817364</v>
+        <v>0.01541111494279573</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00363636363636366</v>
+        <v>0.004710144927536186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02111023698851858</v>
+        <v>0.02120375573358637</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01219768664563636</v>
+        <v>0.01111572823602724</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01237540085664932</v>
+        <v>0.01252411785187983</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01984348798211277</v>
+        <v>0.01562071800493281</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04217014144808648</v>
+        <v>0.0424919847039121</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01542444774968321</v>
+        <v>0.00569630553897893</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0242120629726531</v>
+        <v>0.02402390165776796</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.80776775205694E-05</v>
+        <v>0.0001961745953900085</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04547830498936552</v>
+        <v>0.04541299648809358</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006286266924564687</v>
+        <v>0.005285920230658325</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05474919546033628</v>
+        <v>0.05522345284741424</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01646276104232114</v>
+        <v>0.01671248418204829</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01269990370483807</v>
+        <v>0.01280653201448997</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01619433198380582</v>
+        <v>0.03253652058432932</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02078010722170867</v>
+        <v>0.02064445991871652</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001155179052753308</v>
+        <v>0.002692307692307772</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01328649706531673</v>
+        <v>0.01324856934609941</v>
       </c>
       <c r="E32" s="1">
-        <v>0.004856726566294212</v>
+        <v>0.006283228612856462</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04225377088080455</v>
+        <v>0.04197285081603053</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001033591731266048</v>
+        <v>0.003613835828601086</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01673538519523123</v>
+        <v>0.01674250331323604</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008162031438936124</v>
+        <v>0.01844077961019486</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007733408778782813</v>
+        <v>0.005403550095504528</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03571158590777979</v>
+        <v>0.03550564198204227</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003944773175542649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0204100454060911</v>
+        <v>0.02017317617660333</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006264682850430692</v>
+        <v>-0.001970055161544582</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01931051020089176</v>
+        <v>0.01919123640150408</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008064516129030475</v>
+        <v>0.001779661016949152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03727989891128229</v>
+        <v>0.03725175427410597</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004644515898535317</v>
+        <v>0.009601706970128188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03445012232093515</v>
+        <v>0.03425126385194842</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000400000000000067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01983635481892061</v>
+        <v>0.01977800808762834</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00244625217896588</v>
+        <v>-0.0008945770853017176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03700916449274528</v>
+        <v>0.03740257109302948</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01609096760351858</v>
+        <v>-0.004856418918918859</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02040574234248521</v>
+        <v>0.02040245850266948</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005241753276095773</v>
+        <v>-0.0005394228175852334</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02638187805989829</v>
+        <v>0.02625537391597386</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0005825242718446866</v>
+        <v>-0.005918882204541065</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02388456436005355</v>
+        <v>0.02410648900445397</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01474530831099186</v>
+        <v>0.004491413474240424</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05736383356838443</v>
+        <v>0.05766771495819935</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01072961373390569</v>
+        <v>-0.001179523472517152</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02471187956523288</v>
+        <v>0.02464326440558882</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002611940298507642</v>
+        <v>-0.001116486788239834</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02761060762716959</v>
+        <v>0.02720317610030327</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.009432527004412217</v>
+        <v>-0.01029027799109195</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03374175608828996</v>
+        <v>0.03349193173964538</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002040469307940884</v>
+        <v>-0.01277900834895207</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01992574584263813</v>
+        <v>0.01977911628553766</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001995012468827828</v>
+        <v>0.002248875562218755</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03124843809036496</v>
+        <v>0.0311492777867856</v>
       </c>
       <c r="E17" s="1">
-        <v>0.002213114754098466</v>
+        <v>0.006788255500122631</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04178428442158687</v>
+        <v>0.04179205384649572</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005590496156534064</v>
+        <v>0.0009265693768818473</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1254149403253598</v>
+        <v>0.1253265346538008</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004694835680751019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009271411581411284</v>
+        <v>0.009174706801722618</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.00508323802262034</v>
+        <v>0.0201813769319199</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01542863455890541</v>
+        <v>0.01541633218515113</v>
       </c>
       <c r="E21" s="1">
-        <v>0.004601868637568174</v>
+        <v>-0.008606329816768565</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0171123618755515</v>
+        <v>0.01714685327904233</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007430025445292587</v>
+        <v>0.001565972923822878</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01541111494279573</v>
+        <v>0.01540048622883856</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004710144927536186</v>
+        <v>-0.002884962134872104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02120375573358637</v>
+        <v>0.02132422440508337</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01111572823602724</v>
+        <v>0.0009246892016852026</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01252411785187983</v>
+        <v>0.01265139113930553</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01562071800493281</v>
+        <v>0.01268213707501364</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0424919847039121</v>
+        <v>0.04250435760614119</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00569630553897893</v>
+        <v>-0.00204444923940017</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02402390165776796</v>
+        <v>0.02389947253983025</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001961745953900085</v>
+        <v>-9.80680592330696E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04541299648809358</v>
+        <v>0.04540768327367471</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005285920230658325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05522345284741424</v>
+        <v>0.05584461475620543</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01671248418204829</v>
+        <v>-0.002682403433476366</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01280653201448997</v>
+        <v>0.01315214373943399</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03253652058432932</v>
+        <v>-0.003858520900321571</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02064445991871652</v>
+        <v>0.02058878860631922</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002692307692307772</v>
+        <v>-0.0003835826620637306</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01324856934609941</v>
+        <v>0.01326016119082514</v>
       </c>
       <c r="E32" s="1">
-        <v>0.006283228612856462</v>
+        <v>0.009125840537944185</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04197285081603053</v>
+        <v>0.04189813513602231</v>
       </c>
       <c r="E33" s="1">
-        <v>0.003613835828601086</v>
+        <v>-0.001543209876543217</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01674250331323604</v>
+        <v>0.01695960604608832</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01844077961019486</v>
+        <v>-0.0004416310908287313</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.005403550095504528</v>
+        <v>-0.0004479376710774252</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03550564198204227</v>
+        <v>0.03552155342395606</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.0003946329913182556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02017317617660333</v>
+        <v>0.02014245647179362</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001970055161544582</v>
+        <v>0.001579155151993916</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01919123640150408</v>
+        <v>0.01923400593261784</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001779661016949152</v>
+        <v>0.00547451871366933</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03725175427410597</v>
+        <v>0.03762628893500599</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009601706970128188</v>
+        <v>-0.001761183515322395</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03425126385194842</v>
+        <v>0.0342666131588425</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0004001600640257674</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01977800808762834</v>
+        <v>0.0197691704909891</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0008945770853017176</v>
+        <v>-0.001918391026880739</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03740257109302948</v>
+        <v>0.03723760866685981</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004856418918918859</v>
+        <v>-0.002546148949713722</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02040245850266948</v>
+        <v>0.02040059114430408</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0005394228175852334</v>
+        <v>-8.99523252676504E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02625537391597386</v>
+        <v>0.0261116678502138</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005918882204541065</v>
+        <v>0.0003904343582235015</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02410648900445397</v>
+        <v>0.02422561277855366</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004491413474240424</v>
+        <v>-0.008153603366649165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05766771495819935</v>
+        <v>0.05762550717027623</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001179523472517152</v>
+        <v>-0.00590458195559751</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02464326440558882</v>
+        <v>0.02462678178974191</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001116486788239834</v>
+        <v>0.002235469448584215</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02720317610030327</v>
+        <v>0.02693531319745393</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01029027799109195</v>
+        <v>-0.004345127250155234</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03349193173964538</v>
+        <v>0.03307875528492639</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01277900834895207</v>
+        <v>-0.0131170176044183</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01977911628553766</v>
+        <v>0.01983248077204321</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002248875562218755</v>
+        <v>-0.001495886312640304</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0311492777867856</v>
+        <v>0.03137478098937354</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006788255500122631</v>
+        <v>-0.004630381803411909</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04179205384649572</v>
+        <v>0.04184952306168283</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0009265693768818473</v>
+        <v>-0.0004628558204118338</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1253265346538008</v>
+        <v>0.1253826982876652</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.0006675567423231055</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009174706801722618</v>
+        <v>0.00936405953294705</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0201813769319199</v>
+        <v>-0.006134969325153561</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01541633218515113</v>
+        <v>0.0152905033382558</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008606329816768565</v>
+        <v>-0.0002100252030242666</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01714685327904233</v>
+        <v>0.01718140098374859</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001565972923822878</v>
+        <v>0.003681847985070874</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01540048622883856</v>
+        <v>0.01536293804789983</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002884962134872104</v>
+        <v>0.003616636528029016</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02132422440508337</v>
+        <v>0.02135350772564502</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0009246892016852026</v>
+        <v>0.001334428248819464</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01265139113930553</v>
+        <v>0.01281757929254097</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01268213707501364</v>
+        <v>-0.009059419131361657</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04250435760614119</v>
+        <v>0.04243646849742961</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.00204444923940017</v>
+        <v>-0.003086469802865865</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02389947253983025</v>
+        <v>0.02390783798620962</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.80680592330696E-05</v>
+        <v>0.0001961553550411388</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04540768327367471</v>
+        <v>0.04542803220062028</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.001434034416825769</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05584461475620543</v>
+        <v>0.05571977595651714</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002682403433476366</v>
+        <v>-0.01004124081047164</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01315214373943399</v>
+        <v>0.01310726715665569</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003858520900321571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02058878860631922</v>
+        <v>0.02059011419177523</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0003835826620637306</v>
+        <v>0.0007674597083653367</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01326016119082514</v>
+        <v>0.01338716792418233</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009125840537944185</v>
+        <v>-0.009519276534983301</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04189813513602231</v>
+        <v>0.04185222470813683</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001543209876543217</v>
+        <v>-0.002575991756826435</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01695960604608832</v>
+        <v>0.01695971305113643</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0004416310908287313</v>
+        <v>0.0008836524300439574</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0004479376710774252</v>
+        <v>-0.002052681410561252</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03552155342395606</v>
+        <v>0.03558057102378977</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003946329913182556</v>
+        <v>-0.000394788787998257</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02014245647179362</v>
+        <v>0.02021576105261792</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001579155151993916</v>
+        <v>0.003153330705557567</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01923400593261784</v>
+        <v>0.01937908193928529</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00547451871366933</v>
+        <v>-0.0008012820512820484</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03762628893500599</v>
+        <v>0.03763727947912179</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001761183515322395</v>
+        <v>-0.0003528581510233719</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0342666131588425</v>
+        <v>0.03435083661271023</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004001600640257674</v>
+        <v>-0.000400000000000067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0197691704909891</v>
+        <v>0.01977183076116652</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001918391026880739</v>
+        <v>-0.00253435327489604</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03723760866685981</v>
+        <v>0.03721919531901021</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002546148949713722</v>
+        <v>-0.006807062327164326</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02040059114430408</v>
+        <v>0.02044071433803409</v>
       </c>
       <c r="E9" s="1">
-        <v>-8.99523252676504E-05</v>
+        <v>-0.004677941705649502</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0261116678502138</v>
+        <v>0.02617559289543994</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0003904343582235015</v>
+        <v>-0.0129768757927603</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02422561277855366</v>
+        <v>0.02407751019823983</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008153603366649165</v>
+        <v>-0.007690267833465936</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05762550717027623</v>
+        <v>0.05740308288159642</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00590458195559751</v>
+        <v>-0.005464480874317057</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02462678178974191</v>
+        <v>0.02473260236115136</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002235469448584215</v>
+        <v>-0.0007434944237918462</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02693531319745393</v>
+        <v>0.02687343844161517</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004345127250155234</v>
+        <v>-0.002805486284289338</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03307875528492639</v>
+        <v>0.032712008000246</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0131170176044183</v>
+        <v>-0.004547044421126301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01983248077204321</v>
+        <v>0.01984354611373789</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001495886312640304</v>
+        <v>-0.005493133583021281</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03137478098937354</v>
+        <v>0.03129373985245638</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.004630381803411909</v>
+        <v>-0.00612094997143553</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04184952306168283</v>
+        <v>0.0419161933572582</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0004628558204118338</v>
+        <v>-0.001389210465385426</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1253826982876652</v>
+        <v>0.125724470637007</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006675567423231055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00936405953294705</v>
+        <v>0.00932575411706908</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006134969325153561</v>
+        <v>-0.0002519526329048949</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0152905033382558</v>
+        <v>0.01531873643269652</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0002100252030242666</v>
+        <v>-0.001470485260135934</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01718140098374859</v>
+        <v>0.01728013089379906</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003681847985070874</v>
+        <v>-0.01170854271356792</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01536293804789983</v>
+        <v>0.01545021457907736</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003616636528029016</v>
+        <v>-0.004684684684684748</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02135350772564502</v>
+        <v>0.02142598316691523</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001334428248819464</v>
+        <v>-0.002767811378780016</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01281757929254097</v>
+        <v>0.01272758514691278</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.009059419131361657</v>
+        <v>-0.02151115891368649</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04243646849742961</v>
+        <v>0.0423925079318508</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003086469802865865</v>
+        <v>-0.004446131323537328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02390783798620962</v>
+        <v>0.0239617134003201</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001961553550411388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04542803220062028</v>
+        <v>0.04558675264200073</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001434034416825769</v>
+        <v>-0.004773269689737347</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05571977595651714</v>
+        <v>0.05527373964609597</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01004124081047164</v>
+        <v>-0.0003622532149972768</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01310726715665569</v>
+        <v>0.01313422754137194</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>-0.01355713363460298</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02059011419177523</v>
+        <v>0.02064830065772785</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0007674597083653367</v>
+        <v>0.0003834355828220559</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01338716792418233</v>
+        <v>0.01328700576041821</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.009519276534983301</v>
+        <v>0.0004805382027870397</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04185222470813683</v>
+        <v>0.04183027795624321</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002575991756826435</v>
+        <v>-0.001549586776859568</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01695971305113643</v>
+        <v>0.01700961486301703</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0008836524300439574</v>
+        <v>-0.01088875809299583</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002052681410561252</v>
+        <v>-0.003304320625243551</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03558057102378977</v>
+        <v>0.03568443703457255</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.000394788787998257</v>
+        <v>0.0003317535545022121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02021576105261792</v>
+        <v>0.02034674018593421</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003153330705557567</v>
+        <v>0.002750491159135615</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01937908193928529</v>
+        <v>0.01942774934160856</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008012820512820484</v>
+        <v>0.002405773857257376</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03763727947912179</v>
+        <v>0.03774873277455902</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0003528581510233719</v>
+        <v>0.01200141193081561</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03435083661271023</v>
+        <v>0.03445093320722065</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000400000000000067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01977183076116652</v>
+        <v>0.01978710489594781</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00253435327489604</v>
+        <v>0.002140637140637391</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03721919531901021</v>
+        <v>0.03708839388156682</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006807062327164326</v>
+        <v>0.01177982437352765</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02044071433803409</v>
+        <v>0.02041254345629525</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004677941705649502</v>
+        <v>0.006959508315256713</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02617559289543994</v>
+        <v>0.025921568651568</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0129768757927603</v>
+        <v>0.01097271648873077</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02407751019823983</v>
+        <v>0.02397155740761354</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007690267833465936</v>
+        <v>0.006948156066274747</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05740308288159642</v>
+        <v>0.05727867193010831</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005464480874317057</v>
+        <v>0.006927854753941753</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02473260236115136</v>
+        <v>0.02479614823324369</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0007434944237918462</v>
+        <v>0.01488095238095255</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02687343844161517</v>
+        <v>0.02688688827814161</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002805486284289338</v>
+        <v>0.001250390747108643</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.032712008000246</v>
+        <v>0.03267122123694979</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004547044421126301</v>
+        <v>-0.002283907238229133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01984354611373789</v>
+        <v>0.01979996830783303</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005493133583021281</v>
+        <v>0.007280944012051149</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03129373985245638</v>
+        <v>0.03120530476856416</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00612094997143553</v>
+        <v>0.01059287239283946</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0419161933572582</v>
+        <v>0.04199673361585692</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001389210465385426</v>
+        <v>0.006028286575469499</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.125724470637007</v>
+        <v>0.1261412818764059</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.005336891260840471</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.00932575411706908</v>
+        <v>0.009354314121853308</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0002519526329048949</v>
+        <v>0.003780241935483764</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01531873643269652</v>
+        <v>0.01534692160616558</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001470485260135934</v>
+        <v>0.007713884992987419</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01728013089379906</v>
+        <v>0.01713442337168167</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01170854271356792</v>
+        <v>0.01632175725835161</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01545021457907736</v>
+        <v>0.01542881695354638</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.004684684684684748</v>
+        <v>0.004344677769732019</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02142598316691523</v>
+        <v>0.02143751651487841</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002767811378780016</v>
+        <v>0.0123355263157896</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01272758514691278</v>
+        <v>0.01249508781661674</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02151115891368649</v>
+        <v>0.01621324539708691</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0423925079318508</v>
+        <v>0.04234394323945196</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004446131323537328</v>
+        <v>0.00800609988562706</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0239617134003201</v>
+        <v>0.02404115307829134</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>-0.0001961168856638995</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04558675264200073</v>
+        <v>0.04551956601820722</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004773269689737347</v>
+        <v>0.007194244604316502</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05527373964609597</v>
+        <v>0.05543689784114025</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0003622532149972768</v>
+        <v>0.01395180286283737</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01313422754137194</v>
+        <v>0.01299911831817501</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01355713363460298</v>
+        <v>-0.0006544502617802372</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02064830065772785</v>
+        <v>0.02072469900128675</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0003834355828220559</v>
+        <v>0.0003832886163281923</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01328700576041821</v>
+        <v>0.01333746192481331</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0004805382027870397</v>
+        <v>0.009606147934678289</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04183027795624321</v>
+        <v>0.0419039223054022</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001549586776859568</v>
+        <v>0.003103983445421621</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01700961486301703</v>
+        <v>0.01688017880450012</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01088875809299583</v>
+        <v>0.01547158583754848</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003304320625243551</v>
+        <v>0.006687257350440623</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03568443703457255</v>
+        <v>0.03545915100519928</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003317535545022121</v>
+        <v>6.317019630142084E-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02034674018593421</v>
+        <v>0.02026717192053461</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002750491159135615</v>
+        <v>0.0007836990595611049</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01942774934160856</v>
+        <v>0.01934512230177225</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002405773857257376</v>
+        <v>0.0007999999999999119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03774873277455902</v>
+        <v>0.03794800280575545</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01200141193081561</v>
+        <v>-0.001395186606208632</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03445093320722065</v>
+        <v>0.03422208134221753</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0004001600640257674</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01978710489594781</v>
+        <v>0.01969773806393863</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002140637140637391</v>
+        <v>0.001934475927598545</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03708839388156682</v>
+        <v>0.03727601434685179</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01177982437352765</v>
+        <v>-0.0006350550381033493</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02041254345629525</v>
+        <v>0.02041806387448844</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006959508315256713</v>
+        <v>-0.001974688089040333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025921568651568</v>
+        <v>0.02603191655002958</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01097271648873077</v>
+        <v>0.005769042730028318</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02397155740761354</v>
+        <v>0.02397777001088087</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006948156066274747</v>
+        <v>0.0005307855626326408</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05727867193010831</v>
+        <v>0.05729236148427894</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006927854753941753</v>
+        <v>-0.0002372479240805303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02479614823324369</v>
+        <v>0.02499797067121644</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01488095238095255</v>
+        <v>-0.008431085043988373</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02688688827814161</v>
+        <v>0.02674167890563828</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001250390747108643</v>
+        <v>0.004995316890415102</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03267122123694979</v>
+        <v>0.03238006934157273</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002283907238229133</v>
+        <v>0.002113048071843648</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01979996830783303</v>
+        <v>0.01981164519854446</v>
       </c>
       <c r="E16" s="1">
-        <v>0.007280944012051149</v>
+        <v>-0.004237288135593209</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03120530476856416</v>
+        <v>0.03132637107472514</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01059287239283946</v>
+        <v>-0.00130007312911351</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04199673361585692</v>
+        <v>0.04196924283369489</v>
       </c>
       <c r="E18" s="1">
-        <v>0.006028286575469499</v>
+        <v>0.0004609356994698111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1261412818764059</v>
+        <v>0.1259720764868464</v>
       </c>
       <c r="E19" s="1">
-        <v>0.005336891260840471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009354314121853308</v>
+        <v>0.009327301626016072</v>
       </c>
       <c r="E20" s="1">
-        <v>0.003780241935483764</v>
+        <v>-0.006025608837559537</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01534692160616558</v>
+        <v>0.01536257251843635</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007713884992987419</v>
+        <v>0.004662491301322236</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01713442337168167</v>
+        <v>0.01729840836224475</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01632175725835161</v>
+        <v>0.002651590954572569</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01542881695354638</v>
+        <v>0.01539291381552018</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004344677769732019</v>
+        <v>0.001441961067051301</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02143751651487841</v>
+        <v>0.02155779702736233</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0123355263157896</v>
+        <v>-0.001726238830219384</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01249508781661674</v>
+        <v>0.01261332519005501</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01621324539708691</v>
+        <v>0.005678745267712282</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04234394323945196</v>
+        <v>0.04239941726382641</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00800609988562706</v>
+        <v>5.403068943143907E-05</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02404115307829134</v>
+        <v>0.02387676810917898</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001961168856638995</v>
+        <v>0.0001961553550411388</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04551956601820722</v>
+        <v>0.04554249055569856</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007194244604316502</v>
+        <v>-0.0004761904761905189</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05543689784114025</v>
+        <v>0.05583694648037008</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01395180286283737</v>
+        <v>-0.004288777698356006</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01299911831817501</v>
+        <v>0.01290431655604693</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0006544502617802372</v>
+        <v>-0.003274394237065992</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02072469900128675</v>
+        <v>0.0205949190188999</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0003832886163281923</v>
+        <v>0.002298850574712796</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01333746192481331</v>
+        <v>0.01337613390734384</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009606147934678289</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0419039223054022</v>
+        <v>0.04175476651722813</v>
       </c>
       <c r="E33" s="1">
-        <v>0.003103983445421621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01688017880450012</v>
+        <v>0.01702747483358677</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01547158583754848</v>
+        <v>0.0005859947260473675</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.006687257350440623</v>
+        <v>-0.0001302486721290741</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03545915100519928</v>
+        <v>0.03546601036748503</v>
       </c>
       <c r="E2" s="1">
-        <v>6.317019630142084E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02026717192053461</v>
+        <v>0.02028569746926729</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0007836990595611049</v>
+        <v>0.001174628034455782</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01934512230177225</v>
+        <v>0.01936312042033669</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0007999999999999119</v>
+        <v>-0.001598721023181482</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03794800280575545</v>
+        <v>0.03789999468448985</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001395186606208632</v>
+        <v>0.002444987775061191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03422208134221753</v>
+        <v>0.03424023539767246</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004001600640257674</v>
+        <v>-0.000400000000000067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01969773806393863</v>
+        <v>0.01973841376623445</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001934475927598545</v>
+        <v>0.001741149158444477</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03727601434685179</v>
+        <v>0.03725719472628076</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0006350550381033493</v>
+        <v>0.003600932005930924</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02041806387448844</v>
+        <v>0.02038039908687275</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001974688089040333</v>
+        <v>0.00107923374404173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02603191655002958</v>
+        <v>0.026185506416391</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005769042730028318</v>
+        <v>-0.005347073692397397</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02397777001088087</v>
+        <v>0.02399362220245821</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0005307855626326408</v>
+        <v>0.007692307692307665</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05729236148427894</v>
+        <v>0.05728623044589799</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0002372479240805303</v>
+        <v>0.006881822496440204</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02499797067121644</v>
+        <v>0.02479043957639661</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.008431085043988373</v>
+        <v>0.002587800369685755</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02674167890563828</v>
+        <v>0.02687876298914149</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004995316890415102</v>
+        <v>0.0006213109661385996</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03238006934157273</v>
+        <v>0.03245271690794534</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002113048071843648</v>
+        <v>0.001230012300122985</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01981164519854446</v>
+        <v>0.01973026739052646</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.004237288135593209</v>
+        <v>-0.003504380475594426</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03132637107472514</v>
+        <v>0.0312897199459325</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00130007312911351</v>
+        <v>0.01399397933447233</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04196924283369489</v>
+        <v>0.0419940576262398</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0004609356994698111</v>
+        <v>0.00253397834600344</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1259720764868464</v>
+        <v>0.1259884863198931</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>-0.001327140013271277</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009327301626016072</v>
+        <v>0.009272306660537877</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006025608837559537</v>
+        <v>-0.001894417782268287</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01536257251843635</v>
+        <v>0.01543621092514519</v>
       </c>
       <c r="E21" s="1">
-        <v>0.004662491301322236</v>
+        <v>-0.0008311976172334923</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01729840836224475</v>
+        <v>0.01734653602867035</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002651590954572569</v>
+        <v>0.01491941519884254</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01539291381552018</v>
+        <v>0.01541711785707958</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001441961067051301</v>
+        <v>0.005399568034557101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02155779702736233</v>
+        <v>0.02152338651355282</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001726238830219384</v>
+        <v>0.01129081476960647</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01261332519005501</v>
+        <v>0.0126866054643037</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005678745267712282</v>
+        <v>0.01075557945684325</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04239941726382641</v>
+        <v>0.04240723161917974</v>
       </c>
       <c r="E26" s="1">
-        <v>5.403068943143907E-05</v>
+        <v>0.003727916148900556</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02387676810917898</v>
+        <v>0.02388456259766741</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001961553550411388</v>
+        <v>0.0002941753284957382</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04554249055569856</v>
+        <v>0.04552673345201245</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0004761904761905189</v>
+        <v>0.005240590757503716</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05583694648037008</v>
+        <v>0.05560471667007116</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004288777698356006</v>
+        <v>0.01238334529791807</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01290431655604693</v>
+        <v>0.01286373822110445</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003274394237065992</v>
+        <v>0.01511169513797639</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0205949190188999</v>
+        <v>0.02064495263798993</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002298850574712796</v>
+        <v>-0.001529051987767538</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01337613390734384</v>
+        <v>0.01336514764593163</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0009514747859181716</v>
+        <v>0.01476190476190475</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,7 +1265,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04175476651722813</v>
+        <v>0.04176020572857212</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01702747483358677</v>
+        <v>0.01703967223871976</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0005859947260473675</v>
+        <v>0.006442166910688218</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0001302486721290741</v>
+        <v>0.003383138916682737</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,7 +741,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03546601036748503</v>
+        <v>0.0353464284896958</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02028569746926729</v>
+        <v>0.02024104734323187</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001174628034455782</v>
+        <v>0.001173249902229223</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01936312042033669</v>
+        <v>0.01926698131834123</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001598721023181482</v>
+        <v>0.0008006405124099114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03789999468448985</v>
+        <v>0.03786455864624916</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002444987775061191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03424023539767246</v>
+        <v>0.03411113658982407</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000400000000000067</v>
+        <v>0.0004001600640257674</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01973841376623445</v>
+        <v>0.01970611277173796</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001741149158444477</v>
+        <v>0.0003862495171880198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03725719472628076</v>
+        <v>0.03726528172637219</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003600932005930924</v>
+        <v>-0.01118615449556781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02038039908687275</v>
+        <v>0.02033360289800373</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00107923374404173</v>
+        <v>0.004851316144102169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.026185506416391</v>
+        <v>0.02595767217299486</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005347073692397397</v>
+        <v>-0.009774215619196558</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02399362220245821</v>
+        <v>0.02409666615805089</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007692307692307665</v>
+        <v>-0.006843906291129298</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05728623044589799</v>
+        <v>0.05748598105564379</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006881822496440204</v>
+        <v>-0.005420692905962587</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02479043957639661</v>
+        <v>0.02477078926394129</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002587800369685755</v>
+        <v>0.002949852507374562</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02687876298914149</v>
+        <v>0.02680477876913595</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0006213109661385996</v>
+        <v>-0.005277864017386058</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03245271690794534</v>
+        <v>0.03238307769851072</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001230012300122985</v>
+        <v>-0.008775008775008808</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01973026739052646</v>
+        <v>0.01959483298466851</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003504380475594426</v>
+        <v>-0.01205727204220053</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0312897199459325</v>
+        <v>0.031620610721536</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01399397933447233</v>
+        <v>0.005375912701596652</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0419940576262398</v>
+        <v>0.04195851816324111</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00253397834600344</v>
+        <v>-0.0009191176470590978</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1259884863198931</v>
+        <v>0.125397046331007</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001327140013271277</v>
+        <v>-0.001328903654485236</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009272306660537877</v>
+        <v>0.009223536532524879</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001894417782268287</v>
+        <v>-0.01935973680880676</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01543621092514519</v>
+        <v>0.01537137688007911</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0008311976172334923</v>
+        <v>-0.01247833622183714</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01734653602867035</v>
+        <v>0.01754597572862508</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01491941519884254</v>
+        <v>0.004916420845624492</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01541711785707958</v>
+        <v>0.01544810056363998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005399568034557101</v>
+        <v>0.008592910848550073</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02152338651355282</v>
+        <v>0.02169301260871535</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01129081476960647</v>
+        <v>0.0009052504526252392</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0126866054643037</v>
+        <v>0.01277982134646716</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01075557945684325</v>
+        <v>-0.01729183293429115</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04240723161917974</v>
+        <v>0.04242180336886996</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003727916148900556</v>
+        <v>-0.0005920981806438741</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02388456259766741</v>
+        <v>0.02381103281495288</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0002941753284957382</v>
+        <v>-9.80296049406526E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04552673345201245</v>
+        <v>0.04561101204069623</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005240590757503716</v>
+        <v>-0.003317535545023675</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05560471667007116</v>
+        <v>0.05610348319941616</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01238334529791807</v>
+        <v>-0.002481829462861129</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01286373822110445</v>
+        <v>0.01301410259448341</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01511169513797639</v>
+        <v>-0.007766990291261933</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02064495263798993</v>
+        <v>0.02054388262331873</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001529051987767538</v>
+        <v>-0.00191424196018386</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01336514764593163</v>
+        <v>0.01351671376225492</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01476190476190475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04176020572857212</v>
+        <v>0.04161940151162909</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>-0.001031459515213884</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01703967223871976</v>
+        <v>0.01709162132214087</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006442166910688218</v>
+        <v>0.0004364271166716893</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003383138916682737</v>
+        <v>-0.002458659153158238</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,7 +741,7 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0353464284896958</v>
+        <v>0.03543354750559932</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02024104734323187</v>
+        <v>0.02031474217684549</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001173249902229223</v>
+        <v>0.001953124999999778</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01926698131834123</v>
+        <v>0.01932993296074039</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008006405124099114</v>
+        <v>0.000400000000000178</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03786455864624916</v>
+        <v>0.03795788414553811</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.0006968641114982743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03411113658982407</v>
+        <v>0.03420889451604715</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004001600640257674</v>
+        <v>-0.000400000000000067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01970611277173796</v>
+        <v>0.01976231304012538</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003862495171880198</v>
+        <v>9.652509652502417E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03726528172637219</v>
+        <v>0.03693924754675173</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01118615449556781</v>
+        <v>0.0004268943436498418</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02033360289800373</v>
+        <v>0.02048260738413613</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004851316144102169</v>
+        <v>-8.94054537325939E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02595767217299486</v>
+        <v>0.02576730931911328</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.009774215619196558</v>
+        <v>-0.001974138781956403</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02409666615805089</v>
+        <v>0.02399073587528734</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006843906291129298</v>
+        <v>0.001855287569573205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05748598105564379</v>
+        <v>0.05731528595838062</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005420692905962587</v>
+        <v>0.0009478672985780978</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02477078926394129</v>
+        <v>0.02490509257257499</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002949852507374562</v>
+        <v>0.0007352941176470562</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02680477876913595</v>
+        <v>0.02672902435215475</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005277864017386058</v>
+        <v>-0.00561797752808979</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03238307769851072</v>
+        <v>0.0321780307172982</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.008775008775008808</v>
+        <v>-0.002124645892351174</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01959483298466851</v>
+        <v>0.01940628619593532</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01205727204220053</v>
+        <v>-0.0104246122552758</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.031620610721536</v>
+        <v>0.03186895526290489</v>
       </c>
       <c r="E17" s="1">
-        <v>0.005375912701596652</v>
+        <v>0.003671189146049469</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04195851816324111</v>
+        <v>0.04202327425664962</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0009191176470590978</v>
+        <v>-0.001149954001839704</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.125397046331007</v>
+        <v>0.1255390635054426</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001328903654485236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009223536532524879</v>
+        <v>0.009067264605926252</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01935973680880676</v>
+        <v>-0.003483870967741831</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01537137688007911</v>
+        <v>0.01521698104089654</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01247833622183714</v>
+        <v>0.001263601263601366</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01754597572862508</v>
+        <v>0.01767569764525809</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004916420845624492</v>
+        <v>0.002299412915851118</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01544810056363998</v>
+        <v>0.01561924711945848</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008592910848550073</v>
+        <v>-0.007454739084132189</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02169301260871535</v>
+        <v>0.02176616580097392</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0009052504526252392</v>
+        <v>0.003316249623153356</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01277982134646716</v>
+        <v>0.01258978881030875</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01729183293429115</v>
+        <v>0.009204114780725581</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04242180336886996</v>
+        <v>0.04250118141498161</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0005920981806438741</v>
+        <v>0.00010771799429099</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02381103281495288</v>
+        <v>0.02386738038205104</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.80296049406526E-05</v>
+        <v>9.803921568618534E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04561101204069623</v>
+        <v>0.04557174126579523</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003317535545023675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05610348319941616</v>
+        <v>0.05610218006036025</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002481829462861129</v>
+        <v>0.001066287542207167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01301410259448341</v>
+        <v>0.01294484915785078</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.007766990291261933</v>
+        <v>0.02413568166992808</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02054388262331873</v>
+        <v>0.0205550946327389</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.00191424196018386</v>
+        <v>-0.0003835826620637306</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01351671376225492</v>
+        <v>0.01355002866425585</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.000938526513373894</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04161940151162909</v>
+        <v>0.04167894710872527</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001031459515213884</v>
+        <v>-0.0005162622612288059</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01709162132214087</v>
+        <v>0.01714122499889361</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0004364271166716893</v>
+        <v>-0.00290824487421848</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002458659153158238</v>
+        <v>0.0001497815463233909</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03543354750559932</v>
+        <v>0.03542824100887749</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.01302803000394781</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02031474217684549</v>
+        <v>0.02035137114781932</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001953124999999778</v>
+        <v>-0.000779727095516547</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01932993296074039</v>
+        <v>0.01933476894233471</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000400000000000178</v>
+        <v>-0.002399040383846529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03795788414553811</v>
+        <v>0.03792575208053658</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0006968641114982743</v>
+        <v>0.001046025104602499</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03420889451604715</v>
+        <v>0.03419008991370452</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000400000000000067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01976231304012538</v>
+        <v>0.01976126072711013</v>
       </c>
       <c r="E7" s="1">
-        <v>9.652509652502417E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03693924754675173</v>
+        <v>0.03694948235198559</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0004268943436498418</v>
+        <v>-0.002986985278429666</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02048260738413613</v>
+        <v>0.02047770894441847</v>
       </c>
       <c r="E9" s="1">
-        <v>-8.94054537325939E-05</v>
+        <v>-0.001877682403433556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02576730931911328</v>
+        <v>0.02571258980301908</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001974138781956403</v>
+        <v>-0.01087924043121358</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02399073587528734</v>
+        <v>0.02403164609222929</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001855287569573205</v>
+        <v>0.001851851851851771</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05731528595838062</v>
+        <v>0.05736102162113212</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0009478672985780978</v>
+        <v>0.002604166666666741</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02490509257257499</v>
+        <v>0.02491967263354214</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0007352941176470562</v>
+        <v>-0.00257163850110198</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02672902435215475</v>
+        <v>0.02657488086724693</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00561797752808979</v>
+        <v>-0.0009416195856873921</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0321780307172982</v>
+        <v>0.03210485508167212</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002124645892351174</v>
+        <v>-0.001242015613910574</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01940628619593532</v>
+        <v>0.01920110721549793</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0104246122552758</v>
+        <v>-0.00693730729701969</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03186895526290489</v>
+        <v>0.03198116203765879</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003671189146049469</v>
+        <v>-0.009382951653943983</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04202327425664962</v>
+        <v>0.04196866329296263</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001149954001839704</v>
+        <v>0.001381533502187393</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,7 +1027,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1255390635054426</v>
+        <v>0.1255202628863726</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009067264605926252</v>
+        <v>0.009034322251252056</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003483870967741831</v>
+        <v>-0.01696232034183609</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01521698104089654</v>
+        <v>0.01523392747615406</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001263601263601366</v>
+        <v>-0.006800813293136088</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01767569764525809</v>
+        <v>0.01771368818911222</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002299412915851118</v>
+        <v>-0.003904915312149093</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01561924711945848</v>
+        <v>0.01550048802042787</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007454739084132189</v>
+        <v>-0.02288984263233185</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02176616580097392</v>
+        <v>0.02183507734845955</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003316249623153356</v>
+        <v>-0.003405448717948678</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01258978881030875</v>
+        <v>0.01270376388218553</v>
       </c>
       <c r="E25" s="1">
-        <v>0.009204114780725581</v>
+        <v>-0.001341201716738349</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04250118141498161</v>
+        <v>0.04249939393205768</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00010771799429099</v>
+        <v>-0.0069470623081479</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02386738038205104</v>
+        <v>0.02386614561310947</v>
       </c>
       <c r="E27" s="1">
-        <v>9.803921568618534E-05</v>
+        <v>9.80296049406526E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04557174126579523</v>
+        <v>0.04556491648214644</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.003328578221588163</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05610218006036025</v>
+        <v>0.05615359034445588</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001066287542207167</v>
+        <v>0.003195455352387633</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01294484915785078</v>
+        <v>0.01325529651758052</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02413568166992808</v>
+        <v>0.01974522292993641</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0205550946327389</v>
+        <v>0.02054413292282365</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0003835826620637306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01355002866425585</v>
+        <v>0.0135607145806151</v>
       </c>
       <c r="E32" s="1">
-        <v>0.000938526513373894</v>
+        <v>-0.01265822784810122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04167894710872527</v>
+        <v>0.04165119126141194</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0005162622612288059</v>
+        <v>0.001549586776859346</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01714122499889361</v>
+        <v>0.01708881453008761</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.00290824487421848</v>
+        <v>0.003062563803412743</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0001497815463233909</v>
+        <v>-0.001750165023660877</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -741,10 +741,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03542824100887749</v>
+        <v>0.03502798557723331</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01302803000394781</v>
+        <v>0.0003999999999999559</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,10 +758,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02035137114781932</v>
+        <v>0.02037115551618042</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.000779727095516547</v>
+        <v>0.0003901677721420693</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -772,10 +772,10 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01933476894233471</v>
+        <v>0.01932220109135994</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002399040383846529</v>
+        <v>0.006012024048096309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -789,10 +789,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03792575208053658</v>
+        <v>0.03803198562033684</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001046025104602499</v>
+        <v>0.006269592476489061</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -806,10 +806,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03419008991370452</v>
+        <v>0.03425003312373691</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001600640256102626</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -823,10 +823,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01976126072711013</v>
+        <v>0.01979590683085715</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-9.651578033009756E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -840,10 +840,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03694948235198559</v>
+        <v>0.0369037023612709</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002986985278429666</v>
+        <v>0.005349882302589259</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -857,10 +857,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02047770894441847</v>
+        <v>0.02047509310247505</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001877682403433556</v>
+        <v>0.002060378034578481</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -874,10 +874,10 @@
         <v>76</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02571258980301908</v>
+        <v>0.02547744609148439</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01087924043121358</v>
+        <v>0.002099790020997805</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -891,10 +891,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02403164609222929</v>
+        <v>0.02411836025108774</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001851851851851771</v>
+        <v>-0.0002640612622127891</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -908,10 +908,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05736102162113212</v>
+        <v>0.05761122843858717</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002604166666666741</v>
+        <v>-0.00118063754427411</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,10 +925,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02491967263354214</v>
+        <v>0.02489916589322752</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00257163850110198</v>
+        <v>0.003683241252302016</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -942,10 +942,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02657488086724693</v>
+        <v>0.02659640553766213</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0009416195856873921</v>
+        <v>0.004084197298146464</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -959,10 +959,10 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03210485508167212</v>
+        <v>0.03212119774719358</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001242015613910574</v>
+        <v>0.003553028957186122</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -976,10 +976,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01920110721549793</v>
+        <v>0.01910133372048386</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.00693730729701969</v>
+        <v>0.002069857697283295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03198116203765879</v>
+        <v>0.03173662867790346</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009382951653943983</v>
+        <v>0.006421576497030124</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,10 +1010,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04196866329296263</v>
+        <v>0.04210032692701623</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001381533502187393</v>
+        <v>0.002529317084387195</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,10 +1027,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1255202628863726</v>
+        <v>0.1257403292126241</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.003992015968063978</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,10 +1044,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>0.009034322251252056</v>
+        <v>0.008896649788442432</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01696232034183609</v>
+        <v>-0.0003951527924130893</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,10 +1061,10 @@
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01523392747615406</v>
+        <v>0.01515685137080557</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006800813293136088</v>
+        <v>0.00529436679373152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01771368818911222</v>
+        <v>0.01767545269595375</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003904915312149093</v>
+        <v>0.01406380163669319</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01550048802042787</v>
+        <v>0.01517223820956095</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02288984263233185</v>
+        <v>0.003294289897511016</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02183507734845955</v>
+        <v>0.02179887073340985</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.003405448717948678</v>
+        <v>0.006934673366834287</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>84</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01270376388218553</v>
+        <v>0.0127089683641755</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001341201716738349</v>
+        <v>-0.005372011818425837</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>85</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04249939393205768</v>
+        <v>0.04227814171925556</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0069470623081479</v>
+        <v>0.002331887201735494</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02386614561310947</v>
+        <v>0.02391033222910687</v>
       </c>
       <c r="E27" s="1">
-        <v>9.80296049406526E-05</v>
+        <v>-9.801999607916834E-05</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04556491648214644</v>
+        <v>0.04579673471411191</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003328578221588163</v>
+        <v>0.001421800947867258</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05615359034445588</v>
+        <v>0.05643179158312916</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003195455352387633</v>
+        <v>-0.002477437621659972</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01325529651758052</v>
+        <v>0.01354072380351853</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01974522292993641</v>
+        <v>-0.008744534665833914</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02054413292282365</v>
+        <v>0.02058015158430814</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.001918649270913342</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0135607145806151</v>
+        <v>0.01341253411375515</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01265822784810122</v>
+        <v>0.005223171889838563</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04165119126141194</v>
+        <v>0.04178887081671277</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001549586776859346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01708881453008761</v>
+        <v>0.0171712025530332</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003062563803412743</v>
+        <v>0.002471648735097309</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001750165023660877</v>
+        <v>0.002327768859723411</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Symbol</t>
   </si>
@@ -43,9 +43,6 @@
     <t>MSPRI</t>
   </si>
   <si>
-    <t>JPMPRG</t>
-  </si>
-  <si>
     <t>JPHY</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Morgan Stanley</t>
   </si>
   <si>
-    <t>JPMorgan Chase &amp; Co</t>
-  </si>
-  <si>
     <t>JPMorgan High Yield Research Enhanced ETF</t>
   </si>
   <si>
@@ -284,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -703,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,16 +729,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03502798557723331</v>
+        <v>0.01642737286844508</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003999999999999559</v>
+        <v>4.400193608522507E-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,16 +746,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02037115551618042</v>
+        <v>0.02051027213606682</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0003901677721420693</v>
+        <v>0.001561889886762868</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,13 +763,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01932220109135994</v>
+        <v>0.01954738037657766</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006012024048096309</v>
+        <v>-0.0005988023952094856</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,16 +777,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03803198562033684</v>
+        <v>0.0388688744372163</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006269592476489061</v>
+        <v>0.002403846153846256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,16 +794,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03425003312373691</v>
+        <v>0.01998323829074182</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001600640256102626</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,16 +811,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01979590683085715</v>
+        <v>0.0378611134413338</v>
       </c>
       <c r="E7" s="1">
-        <v>-9.651578033009756E-05</v>
+        <v>0.006305170239596647</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,16 +828,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0369037023612709</v>
+        <v>0.02073636380320215</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005349882302589259</v>
+        <v>0.003565062388591667</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,16 +845,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02047509310247505</v>
+        <v>0.02582034604580244</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002060378034578481</v>
+        <v>0.007953076846604956</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,16 +862,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02547744609148439</v>
+        <v>0.02466781245652266</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002099790020997805</v>
+        <v>-0.003121748178980255</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,16 +879,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02411836025108774</v>
+        <v>0.05832410346445065</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0002640612622127891</v>
+        <v>-0.0009400705052877711</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,16 +896,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05761122843858717</v>
+        <v>0.02523663527029638</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00118063754427411</v>
+        <v>0.001464664957890882</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,16 +913,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02489916589322752</v>
+        <v>0.02670633378227417</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003683241252302016</v>
+        <v>0.002994955863808269</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,16 +930,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02659640553766213</v>
+        <v>0.03286029843323834</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004084197298146464</v>
+        <v>-0.00174978127734049</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,16 +947,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03212119774719358</v>
+        <v>0.01934639289319101</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003553028957186122</v>
+        <v>0.02471042471042462</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,16 +964,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01910133372048386</v>
+        <v>0.03389064806071474</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002069857697283295</v>
+        <v>0.006059228963114505</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,16 +981,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03173662867790346</v>
+        <v>0.04264528293732412</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006421576497030124</v>
+        <v>0.0006861848124428693</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,16 +998,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.04210032692701623</v>
+        <v>0.1624856742128364</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002529317084387195</v>
+        <v>0.001976284584980226</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,16 +1015,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1257403292126241</v>
+        <v>0.008548770302310412</v>
       </c>
       <c r="E19" s="1">
-        <v>0.003992015968063978</v>
+        <v>0.02265193370165752</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,16 +1032,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1">
-        <v>0.008896649788442432</v>
+        <v>0.0153574459049042</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003951527924130893</v>
+        <v>0.008845208845209118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,16 +1049,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01515685137080557</v>
+        <v>0.01841748675669086</v>
       </c>
       <c r="E21" s="1">
-        <v>0.00529436679373152</v>
+        <v>-0.001279438942330513</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,16 +1066,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01767545269595375</v>
+        <v>0.01592570400288807</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01406380163669319</v>
+        <v>0.02213633169360518</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,16 +1083,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01517223820956095</v>
+        <v>0.02306422496455192</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003294289897511016</v>
+        <v>0.002201378254211184</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,16 +1100,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02179887073340985</v>
+        <v>0.01352807477259259</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006934673366834287</v>
+        <v>0.007119247393847061</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,16 +1117,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0127089683641755</v>
+        <v>0.04282188496614918</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005372011818425837</v>
+        <v>-0.006150194216659632</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,16 +1134,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1">
-        <v>0.04227814171925556</v>
+        <v>0.02408533378819444</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002331887201735494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,16 +1151,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02391033222910687</v>
+        <v>0.04607988437117694</v>
       </c>
       <c r="E27" s="1">
-        <v>-9.801999607916834E-05</v>
+        <v>0.001423825344091245</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,16 +1168,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04579673471411191</v>
+        <v>0.05769670422193004</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001421800947867258</v>
+        <v>-0.0003487966515522967</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,16 +1185,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.05643179158312916</v>
+        <v>0.01395915827144259</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002477437621659972</v>
+        <v>-0.005494505494505475</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,16 +1202,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01354072380351853</v>
+        <v>0.020864194922904</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.008744534665833914</v>
+        <v>0.0007627765064834868</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,16 +1219,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02058015158430814</v>
+        <v>0.01382911962638042</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001918649270913342</v>
+        <v>0.004176334106728463</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,16 +1236,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01341253411375515</v>
+        <v>0.04230255179068574</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005223171889838563</v>
+        <v>0.001026694045174414</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,144 +1253,127 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.04178887081671277</v>
+        <v>0.01760131842696392</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>-0.001715020723167093</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
       <c r="D34" s="1">
-        <v>0.0171712025530332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002471648735097309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.002327768859723411</v>
+        <v>0.002211020437674405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/OPPINCOME_holdings.xlsx
+++ b/OPPINCOME_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01642737286844508</v>
+        <v>0.01639185298269999</v>
       </c>
       <c r="E2" s="1">
-        <v>4.400193608522507E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02051027213606682</v>
+        <v>0.02049698766405491</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001561889886762868</v>
+        <v>-0.001169590643274709</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,10 +766,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01954738037657766</v>
+        <v>0.01949257687253997</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0005988023952094856</v>
+        <v>0.0005991611743558778</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,10 +783,10 @@
         <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0388688744372163</v>
+        <v>0.03887635282090728</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002403846153846256</v>
+        <v>0.006166495375128367</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +800,10 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01998323829074182</v>
+        <v>0.0199583616199515</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009633911368014392</v>
+        <v>0.001924927815206923</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,10 +817,10 @@
         <v>72</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0378611134413338</v>
+        <v>0.03801578053931552</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006305170239596647</v>
+        <v>-0.01399331662489567</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,10 +834,10 @@
         <v>73</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02073636380320215</v>
+        <v>0.02076437976583521</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003565062388591667</v>
+        <v>0.00150976909413858</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -851,10 +851,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02582034604580244</v>
+        <v>0.02596828084243674</v>
       </c>
       <c r="E9" s="1">
-        <v>0.007953076846604956</v>
+        <v>0.003156129795837792</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,10 +868,10 @@
         <v>75</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02466781245652266</v>
+        <v>0.02453655493347904</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003121748178980255</v>
+        <v>0.001826722338204689</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -885,10 +885,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>0.05832410346445065</v>
+        <v>0.05814072436520372</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0009400705052877711</v>
+        <v>0.001411432604093266</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,10 +902,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02523663527029638</v>
+        <v>0.02521784132307251</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001464664957890882</v>
+        <v>-0.000731261425959806</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,10 +919,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02670633378227417</v>
+        <v>0.02672722363553575</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002994955863808269</v>
+        <v>0.003928964325004003</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,10 +936,10 @@
         <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03286029843323834</v>
+        <v>0.03273043244320619</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00174978127734049</v>
+        <v>0.005083260297984227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,10 +953,10 @@
         <v>77</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01934639289319101</v>
+        <v>0.0197807149132515</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02471042471042462</v>
+        <v>0.02185380557648831</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,10 +970,10 @@
         <v>78</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03389064806071474</v>
+        <v>0.03402077862018812</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006059228963114505</v>
+        <v>0.01663780772415846</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,10 +987,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.04264528293732412</v>
+        <v>0.04258039934959176</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0006861848124428693</v>
+        <v>0.001371428571428579</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,10 +1004,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1624856742128364</v>
+        <v>0.1624476171445054</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001976284584980226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,10 +1021,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.008548770302310412</v>
+        <v>0.008723129462906081</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02265193370165752</v>
+        <v>0.02836304700162073</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1038,10 @@
         <v>80</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0153574459049042</v>
+        <v>0.01545910532344379</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008845208845209118</v>
+        <v>0.006819288845591576</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1055,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01841748675669086</v>
+        <v>0.01835334309024232</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001279438942330513</v>
+        <v>0.01850446004934514</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1072,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01592570400288807</v>
+        <v>0.01624232854877342</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02213633169360518</v>
+        <v>0.01443795118597468</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>81</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02306422496455192</v>
+        <v>0.0230640030656863</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002201378254211184</v>
+        <v>0.002483048419444245</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01352807477259259</v>
+        <v>0.01359432714849938</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007119247393847061</v>
+        <v>0.02120676596818982</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.04282188496614918</v>
+        <v>0.04246463188790144</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006150194216659632</v>
+        <v>0.00542829225925523</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>84</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02408533378819444</v>
+        <v>0.02403219810701759</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.0003921953132659528</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.04607988437117694</v>
+        <v>0.04604369053759284</v>
       </c>
       <c r="E27" s="1">
-        <v>0.001423825344091245</v>
+        <v>0.003317535545023675</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05769670422193004</v>
+        <v>0.05754933704431224</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0003487966515522967</v>
+        <v>0.003328681088625274</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01395915827144259</v>
+        <v>0.01385183291394948</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005494505494505475</v>
+        <v>-0.007366482504603922</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="1">
-        <v>0.020864194922904</v>
+        <v>0.02083404514101168</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0007627765064834868</v>
+        <v>-0.0003810975609755962</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,10 +1225,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01382911962638042</v>
+        <v>0.01385623822443858</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004176334106728463</v>
+        <v>0.0101663585951941</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04230255179068574</v>
+        <v>0.04225256228993776</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001026694045174414</v>
+        <v>0.0005128205128206442</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01760131842696392</v>
+        <v>0.01753236737851191</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001715020723167093</v>
+        <v>0.001288475304223491</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002211020437674405</v>
+        <v>0.003215655367027948</v>
       </c>
     </row>
     <row r="37" spans="1:5">
